--- a/cp_1_Dmytrenko_Serbinenko/xlFiles/NCbigram_space.xlsx
+++ b/cp_1_Dmytrenko_Serbinenko/xlFiles/NCbigram_space.xlsx
@@ -475,16 +475,16 @@
         <v>1238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001772912531541517</v>
+        <v>0.003545825063083035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01620382293115551</v>
+        <v>0.02886182079922799</v>
       </c>
       <c r="E2" t="n">
-        <v>2.229513304373703</v>
+        <v>3.959026608747424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5540973391252593</v>
+        <v>0.2081946782505152</v>
       </c>
     </row>
     <row r="3">
@@ -497,10 +497,10 @@
         <v>2225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003186373491663874</v>
+        <v>0.006372746983327749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02642736401261311</v>
+        <v>0.04648198104189847</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -515,10 +515,10 @@
         <v>4974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007123155841589263</v>
+        <v>0.01424631168317853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05081137770418068</v>
+        <v>0.08737644372518284</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -533,10 +533,10 @@
         <v>411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005885840472242032</v>
+        <v>0.001177168094448406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006315779893834802</v>
+        <v>0.0114543916932212</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -551,10 +551,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -569,10 +569,10 @@
         <v>1261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001805850324938492</v>
+        <v>0.003611700649876984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01645690536339105</v>
+        <v>0.02930211007690512</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -587,10 +587,10 @@
         <v>3921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005615177735197326</v>
+        <v>0.01123035547039465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04198161015648123</v>
+        <v>0.0727328648425678</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -605,10 +605,10 @@
         <v>3904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00559083240964304</v>
+        <v>0.01118166481928608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04183464011432047</v>
+        <v>0.07248761540935486</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -623,10 +623,10 @@
         <v>2046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002930031534356983</v>
+        <v>0.005860063068713965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02465582886988146</v>
+        <v>0.04345159467104896</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -641,10 +641,10 @@
         <v>176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002520457233855469</v>
+        <v>0.0005040914467710938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003012961358410783</v>
+        <v>0.005521831270050474</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -677,10 +677,10 @@
         <v>1739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002490383596406057</v>
+        <v>0.004980767192812114</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02154036448549822</v>
+        <v>0.03809996177818433</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -695,10 +695,10 @@
         <v>728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001042552764912944</v>
+        <v>0.002085105529825888</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01032717726902488</v>
+        <v>0.01856924900822387</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -713,10 +713,10 @@
         <v>3810</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005456217080107578</v>
+        <v>0.01091243416021516</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04101920294221486</v>
+        <v>0.07112597172421456</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -731,10 +731,10 @@
         <v>3562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005101061742609761</v>
+        <v>0.01020212348521952</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03884451743614847</v>
+        <v>0.06748691138707741</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -749,10 +749,10 @@
         <v>846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001211537965819163</v>
+        <v>0.002423075931638326</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01173852431594632</v>
+        <v>0.02105397270025432</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -767,10 +767,10 @@
         <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001446398753519332</v>
+        <v>0.0002892797507038663</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001844917341944672</v>
+        <v>0.003400554933185477</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -785,10 +785,10 @@
         <v>858</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001228722901504541</v>
+        <v>0.002457445803009082</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01188006057678723</v>
+        <v>0.02130267535056538</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -803,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -821,10 +821,10 @@
         <v>1206</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001727086036380509</v>
+        <v>0.003454172072761018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01585023595342518</v>
+        <v>0.02824629983408935</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -839,10 +839,10 @@
         <v>2047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002931463612330764</v>
+        <v>0.005862927224661529</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02466581306052075</v>
+        <v>0.04346869889637996</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -857,10 +857,10 @@
         <v>5075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007267795716941196</v>
+        <v>0.01453559143388239</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05163235702849837</v>
+        <v>0.08872912262311436</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -875,10 +875,10 @@
         <v>2721</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003896684166659506</v>
+        <v>0.007793368333319012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03118725700198945</v>
+        <v>0.05458114567065989</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -893,10 +893,10 @@
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>7.160389868907582e-05</v>
+        <v>0.0001432077973781516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0009859572104373509</v>
+        <v>0.00182870662349655</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -911,10 +911,10 @@
         <v>2460</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003522911815502531</v>
+        <v>0.007045823631005061</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02870826447808379</v>
+        <v>0.05037070532516252</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -929,10 +929,10 @@
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002898525818933789</v>
+        <v>0.005797051637867578</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02443592031747991</v>
+        <v>0.04307478899709224</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -947,10 +947,10 @@
         <v>1974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002826921920244713</v>
+        <v>0.005653843840489427</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02393428213952441</v>
+        <v>0.04221472043855939</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -965,10 +965,10 @@
         <v>1245</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001782937077357988</v>
+        <v>0.003565874154715976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0162809407280565</v>
+        <v>0.02899600730139702</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -983,10 +983,10 @@
         <v>1524</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002182486832043031</v>
+        <v>0.004364973664086062</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01929277183688534</v>
+        <v>0.03422057000968462</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1001,10 +1001,10 @@
         <v>160</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002291324758050426</v>
+        <v>0.0004582649516100853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00277056230320218</v>
+        <v>0.005082859654794275</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1019,10 +1019,10 @@
         <v>126</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001804418246964711</v>
+        <v>0.0003608836493929421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002244006758695169</v>
+        <v>0.004127129867997396</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -1037,10 +1037,10 @@
         <v>2034</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002912846598671605</v>
+        <v>0.005825693197343209</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02453593967619879</v>
+        <v>0.04324618615505436</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -1055,10 +1055,10 @@
         <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         <v>1720</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002463174114904208</v>
+        <v>0.004926348229808417</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02134405810483261</v>
+        <v>0.03776176797985679</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -1091,10 +1091,10 @@
         <v>985</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001410596804174794</v>
+        <v>0.002821193608349587</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01335761626218255</v>
+        <v>0.02389403891601551</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -1109,10 +1109,10 @@
         <v>2537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003633181819483707</v>
+        <v>0.007266363638967414</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02944530632611879</v>
+        <v>0.05162424901327015</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -1127,10 +1127,10 @@
         <v>5964</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008540913035632964</v>
+        <v>0.01708182607126593</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05868797842051331</v>
+        <v>0.1002941307697607</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -1145,10 +1145,10 @@
         <v>626</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0008964808115872293</v>
+        <v>0.001792961623174459</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009075469416607676</v>
+        <v>0.01635797721004089</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -1163,10 +1163,10 @@
         <v>1489</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002132364102960678</v>
+        <v>0.004264728205921356</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01892117139809055</v>
+        <v>0.03357761459025974</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -1181,10 +1181,10 @@
         <v>1473</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002109450855380174</v>
+        <v>0.004218901710760348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01875073316338064</v>
+        <v>0.03328256461600095</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -1199,10 +1199,10 @@
         <v>600</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0008592467842689098</v>
+        <v>0.00171849356853782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.008751119024778927</v>
+        <v>0.01578374448102004</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -1217,10 +1217,10 @@
         <v>335</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000479746121216808</v>
+        <v>0.000959492242433616</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00528941266833628</v>
+        <v>0.009619333094238944</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -1235,10 +1235,10 @@
         <v>370</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0005298688502991611</v>
+        <v>0.001059737700598322</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005766073661818778</v>
+        <v>0.01047240962303923</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -1253,10 +1253,10 @@
         <v>941</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001347585373328407</v>
+        <v>0.002695170746656814</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01284977582395406</v>
+        <v>0.02300438090125131</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -1271,10 +1271,10 @@
         <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>3.293779339697488e-05</v>
+        <v>6.587558679394976e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0004904403368151977</v>
+        <v>0.0009150050868364457</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         <v>89</v>
       </c>
       <c r="C47" t="n">
-        <v>0.000127454939666555</v>
+        <v>0.0002549098793331099</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001648976970992419</v>
+        <v>0.003043044062651729</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -1307,10 +1307,10 @@
         <v>234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003351062458648748</v>
+        <v>0.0006702124917297497</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003868162830036494</v>
+        <v>0.007066113168343238</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
         <v>2897</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004148729890045054</v>
+        <v>0.008297459780090107</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03282937487126281</v>
+        <v>0.05736128996243551</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -1343,10 +1343,10 @@
         <v>2796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00400409001469312</v>
+        <v>0.00800818002938624</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03188981365381255</v>
+        <v>0.05577144727823886</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -1361,10 +1361,10 @@
         <v>489</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0007002861291791616</v>
+        <v>0.001400572258358323</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007338836074817937</v>
+        <v>0.01327709989127755</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
@@ -1379,10 +1379,10 @@
         <v>407</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0005828557353290772</v>
+        <v>0.001165711470658154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.006262536310555048</v>
+        <v>0.01135936115045194</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         <v>2286</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003273730248064547</v>
+        <v>0.006547460496129093</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02702414832273368</v>
+        <v>0.04750083614933827</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         <v>2502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003583059090401354</v>
+        <v>0.007166118180802709</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02911089482861203</v>
+        <v>0.05105567147642135</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
@@ -1433,10 +1433,10 @@
         <v>118</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0001689852009062189</v>
+        <v>0.0003379704018124379</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002117522370284835</v>
+        <v>0.003897074338757232</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -1451,10 +1451,10 @@
         <v>6282</v>
       </c>
       <c r="C56" t="n">
-        <v>0.008996313831295486</v>
+        <v>0.01799262766259097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06114299979326745</v>
+        <v>0.1042933719239439</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -1469,10 +1469,10 @@
         <v>6418</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009191076435729773</v>
+        <v>0.01838215287145955</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06218269130141661</v>
+        <v>0.1059832297313737</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         <v>1121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00160535940860908</v>
+        <v>0.00321071881721816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01490237152551898</v>
+        <v>0.0265940242338198</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         <v>1564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.002239769950994292</v>
+        <v>0.004479539901988583</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0197154265538066</v>
+        <v>0.03495131320562461</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         <v>1523</v>
       </c>
       <c r="C60" t="n">
-        <v>0.00218105475406925</v>
+        <v>0.004362109508138499</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01928217791158389</v>
+        <v>0.03420224631502929</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -1541,10 +1541,10 @@
         <v>2806</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004018410794430935</v>
+        <v>0.00803682158886187</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03198317136082589</v>
+        <v>0.05592952113278993</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -1559,10 +1559,10 @@
         <v>2236</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003202126349375471</v>
+        <v>0.006404252698750942</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02653523349391674</v>
+        <v>0.04666621428908253</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -1577,10 +1577,10 @@
         <v>2675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003830808579865556</v>
+        <v>0.007661617159731113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03075424976587792</v>
+        <v>0.05384688237202472</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
@@ -1595,10 +1595,10 @@
         <v>2228</v>
       </c>
       <c r="C64" t="n">
-        <v>0.003190669725585219</v>
+        <v>0.006381339451170438</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02645679408150119</v>
+        <v>0.04653224871183193</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
@@ -1613,10 +1613,10 @@
         <v>789</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001129909521313617</v>
+        <v>0.002259819042627233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01106133629889257</v>
+        <v>0.0198628535551579</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -1631,10 +1631,10 @@
         <v>3791</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005429007598605729</v>
+        <v>0.01085801519721146</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04085380217828825</v>
+        <v>0.07084958915936503</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -1649,10 +1649,10 @@
         <v>2412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003454172072761018</v>
+        <v>0.006908344145522036</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02824629983408935</v>
+        <v>0.04958425552265665</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -1667,10 +1667,10 @@
         <v>206</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002950080625989924</v>
+        <v>0.0005900161251979847</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003459547158444203</v>
+        <v>0.006329078191690421</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -1685,10 +1685,10 @@
         <v>1558</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002231177483151602</v>
+        <v>0.004462354966303205</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01965216442727431</v>
+        <v>0.03484197388824541</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
@@ -1703,10 +1703,10 @@
         <v>2642</v>
       </c>
       <c r="C70" t="n">
-        <v>0.003783550006730767</v>
+        <v>0.007567100013461533</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03044260896572791</v>
+        <v>0.05331811791799429</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -1721,10 +1721,10 @@
         <v>2432</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003482813632236648</v>
+        <v>0.006965627264473296</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02843902271357236</v>
+        <v>0.04991241816267143</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -1739,10 +1739,10 @@
         <v>961</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001376226932804037</v>
+        <v>0.002752453865608075</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01308112769234102</v>
+        <v>0.02340980151907397</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -1757,10 +1757,10 @@
         <v>1631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.002335719175237653</v>
+        <v>0.004671438350475307</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0204186642303519</v>
+        <v>0.0361658901102285</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -1775,10 +1775,10 @@
         <v>309</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0004425120938984886</v>
+        <v>0.0008850241877969772</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00493046775662009</v>
+        <v>0.008975911325443203</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
@@ -1793,10 +1793,10 @@
         <v>2706</v>
       </c>
       <c r="C75" t="n">
-        <v>0.003875202997052784</v>
+        <v>0.007750405994105567</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0310462368585511</v>
+        <v>0.05434206772299664</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -1811,10 +1811,10 @@
         <v>1214</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001738542660170761</v>
+        <v>0.003477085320341522</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01593879536635755</v>
+        <v>0.02840050541237359</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
@@ -1829,10 +1829,10 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002859859713641688</v>
+        <v>0.005719719427283377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02416535673183181</v>
+        <v>0.04261099403638024</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -1847,10 +1847,10 @@
         <v>2397</v>
       </c>
       <c r="C78" t="n">
-        <v>0.003432690903154295</v>
+        <v>0.00686538180630859</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02810153297759383</v>
+        <v>0.04933768414887907</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -1865,10 +1865,10 @@
         <v>390</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0005585104097747914</v>
+        <v>0.001117020819549583</v>
       </c>
       <c r="D79" t="n">
-        <v>0.006035335094073132</v>
+        <v>0.01095364936859668</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -1883,10 +1883,10 @@
         <v>1410</v>
       </c>
       <c r="C80" t="n">
-        <v>0.002019229943031938</v>
+        <v>0.004038459886063876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01807610419851915</v>
+        <v>0.03211374851097442</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -1901,10 +1901,10 @@
         <v>2398</v>
       </c>
       <c r="C81" t="n">
-        <v>0.003434122981128076</v>
+        <v>0.006868245962256153</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0281111901215039</v>
+        <v>0.04935413428075165</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -1919,10 +1919,10 @@
         <v>381</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0005456217080107578</v>
+        <v>0.001091243416021516</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005914436375242851</v>
+        <v>0.01073762933446419</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
@@ -1937,10 +1937,10 @@
         <v>1668</v>
       </c>
       <c r="C83" t="n">
-        <v>0.00238870606026757</v>
+        <v>0.004777412120535139</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02080456668957658</v>
+        <v>0.03683172125861803</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -1955,10 +1955,10 @@
         <v>3182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004556872112572785</v>
+        <v>0.009113744225145571</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03544216833849437</v>
+        <v>0.06177059245184317</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
@@ -1973,10 +1973,10 @@
         <v>5960</v>
       </c>
       <c r="C85" t="n">
-        <v>0.008535184723737838</v>
+        <v>0.01707036944747568</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05865687836781914</v>
+        <v>0.1002433872881626</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
@@ -1991,10 +1991,10 @@
         <v>1174</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0016812595412195</v>
+        <v>0.003362519082439001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01549489451022445</v>
+        <v>0.02762726993800991</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         <v>7375</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01056157505663868</v>
+        <v>0.02112315011327737</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06933706964862804</v>
+        <v>0.1175509891839787</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -2027,10 +2027,10 @@
         <v>1195</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001711333178668912</v>
+        <v>0.003422666357337824</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01572828758664444</v>
+        <v>0.02803390881595106</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -2045,10 +2045,10 @@
         <v>859</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001230154979478323</v>
+        <v>0.002460309958956645</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01189183954591936</v>
+        <v>0.02132336913288207</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -2063,10 +2063,10 @@
         <v>4157</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005953148137009764</v>
+        <v>0.01190629627401953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04400645380881688</v>
+        <v>0.07610661134361424</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
@@ -2081,10 +2081,10 @@
         <v>1502</v>
       </c>
       <c r="C91" t="n">
-        <v>0.002150981116619838</v>
+        <v>0.004301962233239675</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01905939073197054</v>
+        <v>0.0338168192307014</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -2099,10 +2099,10 @@
         <v>1223</v>
       </c>
       <c r="C92" t="n">
-        <v>0.001751431361934795</v>
+        <v>0.003502862723869589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01603829454868387</v>
+        <v>0.02857372637349816</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
@@ -2117,10 +2117,10 @@
         <v>293</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0004195988463179843</v>
+        <v>0.0008391976926359686</v>
       </c>
       <c r="D93" t="n">
-        <v>0.004707354277204995</v>
+        <v>0.008575510861774023</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
@@ -2135,10 +2135,10 @@
         <v>2235</v>
       </c>
       <c r="C94" t="n">
-        <v>0.003200694271401689</v>
+        <v>0.006401388542803379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02652543180569255</v>
+        <v>0.04664947506858171</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -2153,10 +2153,10 @@
         <v>1164</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001666938761481685</v>
+        <v>0.00333387752296337</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01538348301599246</v>
+        <v>0.02743308850902155</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -2171,10 +2171,10 @@
         <v>1321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001891775003365383</v>
+        <v>0.003783550006730767</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01711307948622934</v>
+        <v>0.03044260896572791</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
@@ -2189,10 +2189,10 @@
         <v>5621</v>
       </c>
       <c r="C97" t="n">
-        <v>0.008049710290625903</v>
+        <v>0.01609942058125181</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05600060629243621</v>
+        <v>0.09590179200362062</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -2207,10 +2207,10 @@
         <v>2066</v>
       </c>
       <c r="C98" t="n">
-        <v>0.002958673093832613</v>
+        <v>0.005917346187665226</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02485532147379763</v>
+        <v>0.04379329675993002</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
@@ -2225,10 +2225,10 @@
         <v>907</v>
       </c>
       <c r="C99" t="n">
-        <v>0.001298894722219835</v>
+        <v>0.002597789444439671</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01245445176109955</v>
+        <v>0.02231111407775942</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -2243,10 +2243,10 @@
         <v>2760</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003952535207636986</v>
+        <v>0.007905070415273972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03155311216338427</v>
+        <v>0.05520115391149456</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
@@ -2261,10 +2261,10 @@
         <v>764</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001094107571969079</v>
+        <v>0.002188215143938157</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01076167456707095</v>
+        <v>0.01933513399020374</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
@@ -2279,10 +2279,10 @@
         <v>3231</v>
       </c>
       <c r="C102" t="n">
-        <v>0.00462704393328808</v>
+        <v>0.009254087866576159</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03588593449958664</v>
+        <v>0.06251778113259711</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         <v>51</v>
       </c>
       <c r="C103" t="n">
-        <v>7.303597666285734e-05</v>
+        <v>0.0001460719533257147</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001003589778712977</v>
+        <v>0.001861107604100239</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
@@ -2315,10 +2315,10 @@
         <v>1092</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001563829147369416</v>
+        <v>0.003127658294738832</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01457598449479148</v>
+        <v>0.02602431069484412</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
@@ -2333,10 +2333,10 @@
         <v>889</v>
       </c>
       <c r="C105" t="n">
-        <v>0.001273117318691768</v>
+        <v>0.002546234637383536</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01224410258039232</v>
+        <v>0.02194197052340111</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -2351,10 +2351,10 @@
         <v>844</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0012086738098716</v>
+        <v>0.0024173476197432</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01171490088289048</v>
+        <v>0.02101245414603775</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
@@ -2369,10 +2369,10 @@
         <v>49</v>
       </c>
       <c r="C107" t="n">
-        <v>7.017182071529431e-05</v>
+        <v>0.0001403436414305886</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0009682833183707295</v>
+        <v>0.00179622299531087</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -2387,10 +2387,10 @@
         <v>1529</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002189647221911939</v>
+        <v>0.004379294443823878</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01934572114599761</v>
+        <v>0.03431214784817135</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
@@ -2405,10 +2405,10 @@
         <v>1014</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001452127065414458</v>
+        <v>0.002904254130828915</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01369009720647498</v>
+        <v>0.02447594028212105</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -2423,10 +2423,10 @@
         <v>259</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0003709081952094127</v>
+        <v>0.0007418163904188255</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004227110970110612</v>
+        <v>0.007712405549802397</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         <v>1124</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001609655642530424</v>
+        <v>0.003219311285060849</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01493604654198034</v>
+        <v>0.02665278179889982</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -2459,10 +2459,10 @@
         <v>2547</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003647502599221523</v>
+        <v>0.007295005198443045</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02954066862891603</v>
+        <v>0.05178633205938902</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -2477,10 +2477,10 @@
         <v>378</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0005413254740894132</v>
+        <v>0.001082650948178826</v>
       </c>
       <c r="D113" t="n">
-        <v>0.005874039698968686</v>
+        <v>0.01066542844975855</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -2495,10 +2495,10 @@
         <v>534</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0007647296379993298</v>
+        <v>0.00152945927599866</v>
       </c>
       <c r="D114" t="n">
-        <v>0.007917064388536186</v>
+        <v>0.01430466950107371</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -2513,10 +2513,10 @@
         <v>172</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0002463174114904208</v>
+        <v>0.0004926348229808416</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002952654539973221</v>
+        <v>0.005412674256965599</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
@@ -2531,10 +2531,10 @@
         <v>925</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001324672125747903</v>
+        <v>0.002649344251495806</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01266406285500663</v>
+        <v>0.02267878145851745</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
@@ -2549,10 +2549,10 @@
         <v>5275</v>
       </c>
       <c r="C117" t="n">
-        <v>0.007554211311697499</v>
+        <v>0.015108422623395</v>
       </c>
       <c r="D117" t="n">
-        <v>0.05324588218276782</v>
+        <v>0.09138334174214063</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -2567,10 +2567,10 @@
         <v>572</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0008191486010030274</v>
+        <v>0.001638297202006055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.008399211598629788</v>
+        <v>0.01516012599525352</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -2585,10 +2585,10 @@
         <v>79</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001131341599287398</v>
+        <v>0.0002262683198574796</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001483152381959817</v>
+        <v>0.002740036444062154</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -2603,10 +2603,10 @@
         <v>3294</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004717264845636315</v>
+        <v>0.00943452969127263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03645423816572827</v>
+        <v>0.06347394664018391</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -2621,10 +2621,10 @@
         <v>79</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0001131341599287398</v>
+        <v>0.0002262683198574796</v>
       </c>
       <c r="D121" t="n">
-        <v>0.001483152381959817</v>
+        <v>0.002740036444062154</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
@@ -2639,10 +2639,10 @@
         <v>335</v>
       </c>
       <c r="C122" t="n">
-        <v>0.000479746121216808</v>
+        <v>0.000959492242433616</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00528941266833628</v>
+        <v>0.009619333094238944</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -2657,10 +2657,10 @@
         <v>283</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0004052780665801691</v>
+        <v>0.0008105561331603383</v>
       </c>
       <c r="D123" t="n">
-        <v>0.004566997590112683</v>
+        <v>0.008323439047065029</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
@@ -2675,10 +2675,10 @@
         <v>95</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0001360474075092441</v>
+        <v>0.0002720948150184882</v>
       </c>
       <c r="D124" t="n">
-        <v>0.001747338879581325</v>
+        <v>0.003222582944144162</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -2693,10 +2693,10 @@
         <v>180</v>
       </c>
       <c r="C125" t="n">
-        <v>0.000257774035280673</v>
+        <v>0.0005155480705613459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.003073080337785594</v>
+        <v>0.005630612605009841</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -2711,10 +2711,10 @@
         <v>1335</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001911824094998324</v>
+        <v>0.003823648189996649</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01726536698767957</v>
+        <v>0.0307070857853625</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -2729,10 +2729,10 @@
         <v>229</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0003279458559959673</v>
+        <v>0.0006558917119919345</v>
       </c>
       <c r="D127" t="n">
-        <v>0.003795728876462596</v>
+        <v>0.006935566040933257</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -2747,10 +2747,10 @@
         <v>52</v>
       </c>
       <c r="C128" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -2765,10 +2765,10 @@
         <v>3166</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004533958864992281</v>
+        <v>0.009067917729984562</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0352969286264788</v>
+        <v>0.06152593952297304</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -2783,10 +2783,10 @@
         <v>1056</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001512274340313281</v>
+        <v>0.003024548680626563</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01416859568995204</v>
+        <v>0.02531264269927752</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -2801,10 +2801,10 @@
         <v>935</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001338992905485718</v>
+        <v>0.002677985810971436</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01278019984652731</v>
+        <v>0.02288241388208319</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -2819,10 +2819,10 @@
         <v>309</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0004425120938984886</v>
+        <v>0.0008850241877969772</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00493046775662009</v>
+        <v>0.008975911325443203</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -2837,10 +2837,10 @@
         <v>549</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0007862108076060525</v>
+        <v>0.001572421615212105</v>
       </c>
       <c r="D133" t="n">
-        <v>0.008108031816278054</v>
+        <v>0.014643642017344</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -2855,10 +2855,10 @@
         <v>361</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0005169801485351274</v>
+        <v>0.001033960297070255</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005644184276925271</v>
+        <v>0.01025440825678029</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
         <v>986</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001412028882148575</v>
+        <v>0.00282405776429715</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01336911019372734</v>
+        <v>0.02391416262315753</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
@@ -2891,10 +2891,10 @@
         <v>1871</v>
       </c>
       <c r="C136" t="n">
-        <v>0.002679417888945217</v>
+        <v>0.005358835777890435</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02289258386293411</v>
+        <v>0.04042633194797778</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -2909,10 +2909,10 @@
         <v>437</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0006258180745425226</v>
+        <v>0.001251636149085045</v>
       </c>
       <c r="D137" t="n">
-        <v>0.006659936582229285</v>
+        <v>0.01206823701537352</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
@@ -2927,10 +2927,10 @@
         <v>331</v>
       </c>
       <c r="C138" t="n">
-        <v>0.000474017809321682</v>
+        <v>0.0009480356186433639</v>
       </c>
       <c r="D138" t="n">
-        <v>0.005234470173207545</v>
+        <v>0.009520904727771727</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
@@ -2945,10 +2945,10 @@
         <v>102</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0001460719533257147</v>
+        <v>0.0002921439066514294</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001861107604100239</v>
+        <v>0.003430071301549049</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
@@ -2963,10 +2963,10 @@
         <v>445</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0006372746983327748</v>
+        <v>0.00127454939666555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00676517882874236</v>
+        <v>0.01225580826081917</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
@@ -2981,10 +2981,10 @@
         <v>518</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0007418163904188255</v>
+        <v>0.001483632780837651</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007712405549802397</v>
+        <v>0.01394117831876714</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -2999,10 +2999,10 @@
         <v>1267</v>
       </c>
       <c r="C142" t="n">
-        <v>0.001814442792781181</v>
+        <v>0.003628885585562363</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01652278367761878</v>
+        <v>0.02941668176967519</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
@@ -3017,10 +3017,10 @@
         <v>2521</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003610268571903203</v>
+        <v>0.007220537143806406</v>
       </c>
       <c r="D143" t="n">
-        <v>0.02929255711868838</v>
+        <v>0.05136457709357035</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -3035,10 +3035,10 @@
         <v>636</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0009108015913250444</v>
+        <v>0.001821603182650089</v>
       </c>
       <c r="D144" t="n">
-        <v>0.009199620300122752</v>
+        <v>0.01657763741759541</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
@@ -3053,10 +3053,10 @@
         <v>1228</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001758591751803702</v>
+        <v>0.003517183503607405</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01609351268075015</v>
+        <v>0.0286698418578929</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
@@ -3071,10 +3071,10 @@
         <v>1970</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002821193608349587</v>
+        <v>0.005642387216699175</v>
       </c>
       <c r="D146" t="n">
-        <v>0.02389403891601551</v>
+        <v>0.04214569061533185</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
@@ -3089,10 +3089,10 @@
         <v>861</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001233019135425886</v>
+        <v>0.002466038270851771</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01191539027143112</v>
+        <v>0.02136474227201046</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
@@ -3107,10 +3107,10 @@
         <v>1072</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001535187587893786</v>
+        <v>0.003070375175787571</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0143499653783539</v>
+        <v>0.02562955558092023</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
@@ -3125,10 +3125,10 @@
         <v>2782</v>
       </c>
       <c r="C149" t="n">
-        <v>0.003984040923060179</v>
+        <v>0.007968081846120358</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03175898866393029</v>
+        <v>0.05554989548174023</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
@@ -3143,10 +3143,10 @@
         <v>277</v>
       </c>
       <c r="C150" t="n">
-        <v>0.00039668559873748</v>
+        <v>0.0007933711974749601</v>
       </c>
       <c r="D150" t="n">
-        <v>0.004482434748511182</v>
+        <v>0.008171498299547405</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
@@ -3161,10 +3161,10 @@
         <v>1323</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001894639159312946</v>
+        <v>0.003789278318625893</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01713485353628307</v>
+        <v>0.03048042875394024</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -3179,10 +3179,10 @@
         <v>59</v>
       </c>
       <c r="C152" t="n">
-        <v>8.449260045310947e-05</v>
+        <v>0.0001689852009062189</v>
       </c>
       <c r="D152" t="n">
-        <v>0.001143253785595527</v>
+        <v>0.002117522370284835</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
@@ -3197,10 +3197,10 @@
         <v>1052</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001506546028418155</v>
+        <v>0.003013092056836311</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01412317530234028</v>
+        <v>0.02523325854784424</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
@@ -3215,10 +3215,10 @@
         <v>800</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001145662379025213</v>
+        <v>0.002291324758050426</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01119266585089676</v>
+        <v>0.0200940069437431</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -3233,10 +3233,10 @@
         <v>234</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0003351062458648748</v>
+        <v>0.0006702124917297497</v>
       </c>
       <c r="D155" t="n">
-        <v>0.003868162830036494</v>
+        <v>0.007066113168343238</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
@@ -3251,10 +3251,10 @@
         <v>22</v>
       </c>
       <c r="C156" t="n">
-        <v>3.150571542319336e-05</v>
+        <v>6.301143084638672e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0004711373160709281</v>
+        <v>0.0008792632012954694</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
@@ -3269,10 +3269,10 @@
         <v>244</v>
       </c>
       <c r="C157" t="n">
-        <v>0.00034942702560269</v>
+        <v>0.0006988540512053801</v>
       </c>
       <c r="D157" t="n">
-        <v>0.004012373109555789</v>
+        <v>0.007325892167906199</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
@@ -3287,10 +3287,10 @@
         <v>285</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0004081422225277322</v>
+        <v>0.0008162844450554644</v>
       </c>
       <c r="D158" t="n">
-        <v>0.004595126521076531</v>
+        <v>0.008373968597097596</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -3305,10 +3305,10 @@
         <v>475</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0006802370375462204</v>
+        <v>0.001360474075092441</v>
       </c>
       <c r="D159" t="n">
-        <v>0.007157232909245108</v>
+        <v>0.01295399174339777</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -3323,10 +3323,10 @@
         <v>346</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0004954989789284047</v>
+        <v>0.0009909979578568095</v>
       </c>
       <c r="D160" t="n">
-        <v>0.005439999201043904</v>
+        <v>0.009889000444230999</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
@@ -3341,10 +3341,10 @@
         <v>370</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0005298688502991611</v>
+        <v>0.001059737700598322</v>
       </c>
       <c r="D161" t="n">
-        <v>0.005766073661818778</v>
+        <v>0.01047240962303923</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
@@ -3359,10 +3359,10 @@
         <v>438</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0006272501525163043</v>
+        <v>0.001254500305032609</v>
       </c>
       <c r="D162" t="n">
-        <v>0.00667310829781455</v>
+        <v>0.01209171629059649</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
@@ -3377,10 +3377,10 @@
         <v>1882</v>
       </c>
       <c r="C163" t="n">
-        <v>0.002695170746656814</v>
+        <v>0.005390341493313628</v>
       </c>
       <c r="D163" t="n">
-        <v>0.02300438090125131</v>
+        <v>0.04061842030918899</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
@@ -3395,10 +3395,10 @@
         <v>490</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0007017182071529431</v>
+        <v>0.001403436414305886</v>
       </c>
       <c r="D164" t="n">
-        <v>0.007351775756671943</v>
+        <v>0.013300115099038</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -3413,10 +3413,10 @@
         <v>1400</v>
       </c>
       <c r="C165" t="n">
-        <v>0.002004909163294123</v>
+        <v>0.004009818326588246</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01796849195780543</v>
+        <v>0.03192716558902262</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         <v>819</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001172871860527062</v>
+        <v>0.002345743721054124</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01141877417506128</v>
+        <v>0.02049180462906844</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         <v>1363</v>
       </c>
       <c r="C167" t="n">
-        <v>0.001951922278264207</v>
+        <v>0.003903844556528414</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0175690351307016</v>
+        <v>0.03123422570487479</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -3467,10 +3467,10 @@
         <v>2041</v>
       </c>
       <c r="C168" t="n">
-        <v>0.002922871144488075</v>
+        <v>0.00584574228897615</v>
       </c>
       <c r="D168" t="n">
-        <v>0.02460589275979411</v>
+        <v>0.04336604323061206</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
@@ -3485,10 +3485,10 @@
         <v>259</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0003709081952094127</v>
+        <v>0.0007418163904188255</v>
       </c>
       <c r="D169" t="n">
-        <v>0.004227110970110612</v>
+        <v>0.007712405549802397</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -3503,10 +3503,10 @@
         <v>65</v>
       </c>
       <c r="C170" t="n">
-        <v>9.308506829579858e-05</v>
+        <v>0.0001861701365915972</v>
       </c>
       <c r="D170" t="n">
-        <v>0.001246510593267229</v>
+        <v>0.002306851049942861</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -3521,10 +3521,10 @@
         <v>1522</v>
       </c>
       <c r="C171" t="n">
-        <v>0.002179622676095468</v>
+        <v>0.004359245352190936</v>
       </c>
       <c r="D171" t="n">
-        <v>0.01927158262971519</v>
+        <v>0.03418391990723943</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -3539,10 +3539,10 @@
         <v>578</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0008277410688457166</v>
+        <v>0.001655482137691433</v>
       </c>
       <c r="D172" t="n">
-        <v>0.008474854116578294</v>
+        <v>0.01529422609546516</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -3557,10 +3557,10 @@
         <v>1385</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0019834279936874</v>
+        <v>0.003966855987374801</v>
       </c>
       <c r="D173" t="n">
-        <v>0.01780679655982707</v>
+        <v>0.03164673713227933</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -3575,10 +3575,10 @@
         <v>802</v>
       </c>
       <c r="C174" t="n">
-        <v>0.001148526534972776</v>
+        <v>0.002297053069945552</v>
       </c>
       <c r="D174" t="n">
-        <v>0.01121651025111155</v>
+        <v>0.02013596743227754</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -3593,10 +3593,10 @@
         <v>953</v>
       </c>
       <c r="C175" t="n">
-        <v>0.001364770309013785</v>
+        <v>0.00272954061802757</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01298869115409682</v>
+        <v>0.02324784169016606</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
@@ -3611,10 +3611,10 @@
         <v>545</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0007804824957109265</v>
+        <v>0.001560964991421853</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00805719093060359</v>
+        <v>0.01455341686978533</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -3629,10 +3629,10 @@
         <v>309</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0004425120938984886</v>
+        <v>0.0008850241877969772</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00493046775662009</v>
+        <v>0.008975911325443203</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -3647,10 +3647,10 @@
         <v>240</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0003436987137075639</v>
+        <v>0.0006873974274151279</v>
       </c>
       <c r="D178" t="n">
-        <v>0.003954792595738248</v>
+        <v>0.007222187764061369</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -3665,10 +3665,10 @@
         <v>132</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0001890342925391602</v>
+        <v>0.0003780685850783203</v>
       </c>
       <c r="D179" t="n">
-        <v>0.002338177338861486</v>
+        <v>0.004298286092644652</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -3683,10 +3683,10 @@
         <v>638</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0009136657472726075</v>
+        <v>0.001827331494545215</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009224411329907554</v>
+        <v>0.01662149116526989</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -3701,10 +3701,10 @@
         <v>511</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0007317918446023549</v>
+        <v>0.00146358368920471</v>
       </c>
       <c r="D181" t="n">
-        <v>0.007622548053881591</v>
+        <v>0.01378151241855847</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -3719,10 +3719,10 @@
         <v>1618</v>
       </c>
       <c r="C182" t="n">
-        <v>0.002317102161578494</v>
+        <v>0.004634204323156988</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02028266718195049</v>
+        <v>0.03593113004074399</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -3737,10 +3737,10 @@
         <v>430</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0006157935287260521</v>
+        <v>0.001231587057452104</v>
       </c>
       <c r="D183" t="n">
-        <v>0.006567601583660257</v>
+        <v>0.01190361610986841</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -3755,10 +3755,10 @@
         <v>7</v>
       </c>
       <c r="C184" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -3773,10 +3773,10 @@
         <v>778</v>
       </c>
       <c r="C185" t="n">
-        <v>0.00111415666360202</v>
+        <v>0.002228313327204039</v>
       </c>
       <c r="D185" t="n">
-        <v>0.01092968988964392</v>
+        <v>0.0196310664520838</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -3791,10 +3791,10 @@
         <v>593</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0008492222384524393</v>
+        <v>0.001698444476904879</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008663400304902948</v>
+        <v>0.01562835613290102</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
@@ -3809,10 +3809,10 @@
         <v>178</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0002549098793331099</v>
+        <v>0.0005098197586662198</v>
       </c>
       <c r="D187" t="n">
-        <v>0.003043044062651729</v>
+        <v>0.005576268366637238</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         <v>501</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0007174710648645398</v>
+        <v>0.00143494212972908</v>
       </c>
       <c r="D188" t="n">
-        <v>0.007493835844473249</v>
+        <v>0.01355272955921742</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
@@ -3845,10 +3845,10 @@
         <v>2401</v>
       </c>
       <c r="C189" t="n">
-        <v>0.003438419215049421</v>
+        <v>0.006876838430098842</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02814015638523287</v>
+        <v>0.0494034743403669</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
@@ -3863,10 +3863,10 @@
         <v>501</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0007174710648645398</v>
+        <v>0.00143494212972908</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007493835844473249</v>
+        <v>0.01355272955921742</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
@@ -3881,10 +3881,10 @@
         <v>208</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002978722185465554</v>
+        <v>0.0005957444370931109</v>
       </c>
       <c r="D191" t="n">
-        <v>0.003488982897198587</v>
+        <v>0.006382221357304063</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -3899,10 +3899,10 @@
         <v>871</v>
       </c>
       <c r="C192" t="n">
-        <v>0.001247339915163701</v>
+        <v>0.002494679830327402</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01203300036647285</v>
+        <v>0.02157132090261829</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
@@ -3917,10 +3917,10 @@
         <v>418</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0005986085930406739</v>
+        <v>0.001197217186081348</v>
       </c>
       <c r="D193" t="n">
-        <v>0.006408763093186399</v>
+        <v>0.01162030900029145</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -3935,10 +3935,10 @@
         <v>610</v>
       </c>
       <c r="C194" t="n">
-        <v>0.000873567564006725</v>
+        <v>0.00174713512801345</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00887613926824667</v>
+        <v>0.01600514340847989</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
@@ -3953,10 +3953,10 @@
         <v>446</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0006387067763065563</v>
+        <v>0.001277413552613113</v>
       </c>
       <c r="D195" t="n">
-        <v>0.006778313106335196</v>
+        <v>0.01227921266005728</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
@@ -3971,10 +3971,10 @@
         <v>129</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001847380586178156</v>
+        <v>0.0003694761172356312</v>
       </c>
       <c r="D196" t="n">
-        <v>0.002291164126850282</v>
+        <v>0.004212852136464934</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
@@ -3989,10 +3989,10 @@
         <v>249</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0003565874154715976</v>
+        <v>0.0007131748309431952</v>
       </c>
       <c r="D197" t="n">
-        <v>0.004084158483878075</v>
+        <v>0.007455142136812954</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
@@ -4007,10 +4007,10 @@
         <v>102</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001460719533257147</v>
+        <v>0.0002921439066514294</v>
       </c>
       <c r="D198" t="n">
-        <v>0.001861107604100239</v>
+        <v>0.003430071301549049</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -4025,10 +4025,10 @@
         <v>702</v>
       </c>
       <c r="C199" t="n">
-        <v>0.001005318737594625</v>
+        <v>0.002010637475189249</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01001109598974967</v>
+        <v>0.01801155450431009</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         <v>1111</v>
       </c>
       <c r="C200" t="n">
-        <v>0.001591038628871265</v>
+        <v>0.00318207725774253</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0147900014222008</v>
+        <v>0.02639792558665908</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -4061,10 +4061,10 @@
         <v>123</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001761455907751265</v>
+        <v>0.000352291181550253</v>
       </c>
       <c r="D201" t="n">
-        <v>0.002196701801465741</v>
+        <v>0.004041112421381229</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
@@ -4079,10 +4079,10 @@
         <v>555</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0007948032754487417</v>
+        <v>0.001589606550897483</v>
       </c>
       <c r="D202" t="n">
-        <v>0.008184180381140304</v>
+        <v>0.01477875421138313</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
@@ -4097,10 +4097,10 @@
         <v>137</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0001961946824080678</v>
+        <v>0.0003923893648161355</v>
       </c>
       <c r="D203" t="n">
-        <v>0.002416221179069285</v>
+        <v>0.004440052993322434</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
@@ -4115,10 +4115,10 @@
         <v>38</v>
       </c>
       <c r="C204" t="n">
-        <v>5.441896300369762e-05</v>
+        <v>0.0001088379260073952</v>
       </c>
       <c r="D204" t="n">
-        <v>0.000770873507921754</v>
+        <v>0.001432909089836113</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
@@ -4133,10 +4133,10 @@
         <v>26</v>
       </c>
       <c r="C205" t="n">
-        <v>3.723402731831943e-05</v>
+        <v>7.446805463663886e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0005478249441047817</v>
+        <v>0.001021181833572925</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
@@ -4151,10 +4151,10 @@
         <v>1383</v>
       </c>
       <c r="C206" t="n">
-        <v>0.001980563837739837</v>
+        <v>0.003961127675479675</v>
       </c>
       <c r="D206" t="n">
-        <v>0.01778521189285757</v>
+        <v>0.03160929611023548</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
@@ -4169,10 +4169,10 @@
         <v>167</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0002391570216215132</v>
+        <v>0.0004783140432430265</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00287700019254534</v>
+        <v>0.005275686341847653</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -4187,10 +4187,10 @@
         <v>1235</v>
       </c>
       <c r="C208" t="n">
-        <v>0.001768616297620173</v>
+        <v>0.003537232595240346</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0161707474406919</v>
+        <v>0.02880426228614344</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
@@ -4205,10 +4205,10 @@
         <v>866</v>
       </c>
       <c r="C209" t="n">
-        <v>0.001240179525294793</v>
+        <v>0.002480359050589586</v>
       </c>
       <c r="D209" t="n">
-        <v>0.01197422514088139</v>
+        <v>0.0214680912311732</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
@@ -4223,10 +4223,10 @@
         <v>374</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0005355971621942872</v>
+        <v>0.001071194324388574</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005820100874857496</v>
+        <v>0.01056900742532642</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
@@ -4241,10 +4241,10 @@
         <v>404</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0005785595014077327</v>
+        <v>0.001157119002815465</v>
       </c>
       <c r="D211" t="n">
-        <v>0.006222550364963221</v>
+        <v>0.01128798172711098</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
@@ -4259,10 +4259,10 @@
         <v>1894</v>
       </c>
       <c r="C212" t="n">
-        <v>0.002712355682342192</v>
+        <v>0.005424711364684385</v>
       </c>
       <c r="D212" t="n">
-        <v>0.02312618983674575</v>
+        <v>0.04082766830880712</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -4277,10 +4277,10 @@
         <v>160</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0002291324758050426</v>
+        <v>0.0004582649516100853</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00277056230320218</v>
+        <v>0.005082859654794275</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>1070</v>
       </c>
       <c r="C214" t="n">
-        <v>0.001532323431946223</v>
+        <v>0.003064646863892445</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0143273213014951</v>
+        <v>0.02558999573909776</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
@@ -4313,10 +4313,10 @@
         <v>270</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0003866610529210094</v>
+        <v>0.0007733221058420189</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004383438290230241</v>
+        <v>0.007993554474618463</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
@@ -4331,10 +4331,10 @@
         <v>1533</v>
       </c>
       <c r="C216" t="n">
-        <v>0.002195375533807065</v>
+        <v>0.00439075106761413</v>
       </c>
       <c r="D216" t="n">
-        <v>0.01938805626555988</v>
+        <v>0.03438536146350564</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
@@ -4349,10 +4349,10 @@
         <v>154</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0002205400079623535</v>
+        <v>0.0004410800159247071</v>
       </c>
       <c r="D217" t="n">
-        <v>0.00267882713563276</v>
+        <v>0.004916574255340813</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
@@ -4367,10 +4367,10 @@
         <v>236</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0003379704018124379</v>
+        <v>0.0006759408036248757</v>
       </c>
       <c r="D218" t="n">
-        <v>0.003897074338757232</v>
+        <v>0.007118207873889589</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
@@ -4385,10 +4385,10 @@
         <v>397</v>
       </c>
       <c r="C219" t="n">
-        <v>0.000568534955591262</v>
+        <v>0.001137069911182524</v>
       </c>
       <c r="D219" t="n">
-        <v>0.006129070238062359</v>
+        <v>0.01112107056494219</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
@@ -4403,10 +4403,10 @@
         <v>243</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0003479949476289085</v>
+        <v>0.000695989895257817</v>
       </c>
       <c r="D220" t="n">
-        <v>0.00399799076975006</v>
+        <v>0.007299991644242301</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
@@ -4421,10 +4421,10 @@
         <v>246</v>
       </c>
       <c r="C221" t="n">
-        <v>0.000352291181550253</v>
+        <v>0.0007045823631005061</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004041112421381229</v>
+        <v>0.007377642479661952</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
@@ -4439,10 +4439,10 @@
         <v>235</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0003365383238386564</v>
+        <v>0.0006730766476773127</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003882622980265004</v>
+        <v>0.007092169312852696</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
@@ -4457,10 +4457,10 @@
         <v>272</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0003895252088685725</v>
+        <v>0.000779050417737145</v>
       </c>
       <c r="D223" t="n">
-        <v>0.004411760833470517</v>
+        <v>0.008044471249203889</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -4475,10 +4475,10 @@
         <v>111</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0001589606550897483</v>
+        <v>0.0003179213101794967</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002005931287262648</v>
+        <v>0.003693941264345798</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
@@ -4493,10 +4493,10 @@
         <v>505</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0007231993767596658</v>
+        <v>0.001446398753519332</v>
       </c>
       <c r="D225" t="n">
-        <v>0.00754536975862006</v>
+        <v>0.01364434076372079</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
@@ -4511,10 +4511,10 @@
         <v>269</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0003852289749472279</v>
+        <v>0.0007704579498944558</v>
       </c>
       <c r="D226" t="n">
-        <v>0.004369265554636614</v>
+        <v>0.007968073159378771</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
@@ -4529,10 +4529,10 @@
         <v>25</v>
       </c>
       <c r="C227" t="n">
-        <v>3.580194934453791e-05</v>
+        <v>7.160389868907582e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0005287805545632133</v>
+        <v>0.0009859572104373509</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
@@ -4547,10 +4547,10 @@
         <v>467</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0006687804137559682</v>
+        <v>0.001337560827511936</v>
       </c>
       <c r="D228" t="n">
-        <v>0.007053078478829053</v>
+        <v>0.01276859613014617</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
@@ -4565,10 +4565,10 @@
         <v>369</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0005284367723253796</v>
+        <v>0.001056873544650759</v>
       </c>
       <c r="D229" t="n">
-        <v>0.005752552936259374</v>
+        <v>0.01044823232786799</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -4583,10 +4583,10 @@
         <v>30</v>
       </c>
       <c r="C230" t="n">
-        <v>4.296233921344549e-05</v>
+        <v>8.592467842689099e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0006232360921076175</v>
+        <v>0.001160547505788344</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
@@ -4601,10 +4601,10 @@
         <v>77</v>
       </c>
       <c r="C231" t="n">
-        <v>0.0001102700039811768</v>
+        <v>0.0002205400079623535</v>
       </c>
       <c r="D231" t="n">
-        <v>0.001449683571797557</v>
+        <v>0.00267882713563276</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
@@ -4619,10 +4619,10 @@
         <v>400</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0005728311895126066</v>
+        <v>0.001145662379025213</v>
       </c>
       <c r="D232" t="n">
-        <v>0.006169164114960986</v>
+        <v>0.01119266585089676</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
@@ -4637,10 +4637,10 @@
         <v>775</v>
       </c>
       <c r="C233" t="n">
-        <v>0.001109860429680675</v>
+        <v>0.00221972085936135</v>
       </c>
       <c r="D233" t="n">
-        <v>0.01089373074569122</v>
+        <v>0.01956774063202109</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         <v>1080</v>
       </c>
       <c r="C234" t="n">
-        <v>0.001546644211684038</v>
+        <v>0.003093288423368075</v>
       </c>
       <c r="D234" t="n">
-        <v>0.01444046473755289</v>
+        <v>0.0257876410517377</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
@@ -4673,10 +4673,10 @@
         <v>70</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0001002454581647062</v>
+        <v>0.0002004909163294123</v>
       </c>
       <c r="D235" t="n">
-        <v>0.001331678259917171</v>
+        <v>0.002462865603504929</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
@@ -4691,10 +4691,10 @@
         <v>371</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0005313009282729426</v>
+        <v>0.001062601856545885</v>
       </c>
       <c r="D236" t="n">
-        <v>0.005779588803447625</v>
+        <v>0.01049657575034937</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
@@ -4709,10 +4709,10 @@
         <v>2148</v>
       </c>
       <c r="C237" t="n">
-        <v>0.003076103487682697</v>
+        <v>0.006152206975365395</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0256691000044368</v>
+        <v>0.0451859930335082</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
@@ -4727,10 +4727,10 @@
         <v>102</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0001460719533257147</v>
+        <v>0.0002921439066514294</v>
       </c>
       <c r="D238" t="n">
-        <v>0.001861107604100239</v>
+        <v>0.003430071301549049</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
@@ -4745,10 +4745,10 @@
         <v>1403</v>
       </c>
       <c r="C239" t="n">
-        <v>0.002009205397215468</v>
+        <v>0.004018410794430935</v>
       </c>
       <c r="D239" t="n">
-        <v>0.01800079107762842</v>
+        <v>0.03198317136082589</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
@@ -4763,10 +4763,10 @@
         <v>985</v>
       </c>
       <c r="C240" t="n">
-        <v>0.001410596804174794</v>
+        <v>0.002821193608349587</v>
       </c>
       <c r="D240" t="n">
-        <v>0.01335761626218255</v>
+        <v>0.02389403891601551</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
@@ -4781,10 +4781,10 @@
         <v>427</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0006114972948047076</v>
+        <v>0.001222994589609415</v>
       </c>
       <c r="D241" t="n">
-        <v>0.006527957590937141</v>
+        <v>0.01183292059226487</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
@@ -4799,10 +4799,10 @@
         <v>1427</v>
       </c>
       <c r="C242" t="n">
-        <v>0.002043575268586224</v>
+        <v>0.004087150537172448</v>
       </c>
       <c r="D242" t="n">
-        <v>0.01825870927518956</v>
+        <v>0.03243026801320666</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
@@ -4817,10 +4817,10 @@
         <v>1275</v>
       </c>
       <c r="C243" t="n">
-        <v>0.001825899416571434</v>
+        <v>0.003651798833142867</v>
       </c>
       <c r="D243" t="n">
-        <v>0.01661053016027311</v>
+        <v>0.02956926148740336</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
@@ -4835,10 +4835,10 @@
         <v>743</v>
       </c>
       <c r="C244" t="n">
-        <v>0.001064033934519667</v>
+        <v>0.002128067869039334</v>
       </c>
       <c r="D244" t="n">
-        <v>0.01050865463546976</v>
+        <v>0.01888924140190019</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
@@ -4853,10 +4853,10 @@
         <v>192</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0002749589709660512</v>
+        <v>0.0005499179419321023</v>
       </c>
       <c r="D245" t="n">
-        <v>0.003252351094285889</v>
+        <v>0.005954784246639676</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
@@ -4871,10 +4871,10 @@
         <v>246</v>
       </c>
       <c r="C246" t="n">
-        <v>0.000352291181550253</v>
+        <v>0.0007045823631005061</v>
       </c>
       <c r="D246" t="n">
-        <v>0.004041112421381229</v>
+        <v>0.007377642479661952</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
@@ -4889,10 +4889,10 @@
         <v>82</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0001174303938500843</v>
+        <v>0.0002348607877001687</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001533160244491043</v>
+        <v>0.002831459701281917</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
@@ -4907,10 +4907,10 @@
         <v>174</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0002491815674379839</v>
+        <v>0.0004983631348759677</v>
       </c>
       <c r="D248" t="n">
-        <v>0.002982831697436681</v>
+        <v>0.005467300259997395</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
@@ -4925,10 +4925,10 @@
         <v>643</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0009208261371415151</v>
+        <v>0.00184165227428303</v>
       </c>
       <c r="D249" t="n">
-        <v>0.009286332322056525</v>
+        <v>0.01673101236983002</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
@@ -4943,10 +4943,10 @@
         <v>618</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0008850241877969772</v>
+        <v>0.001770048375593954</v>
       </c>
       <c r="D250" t="n">
-        <v>0.008975911325443203</v>
+        <v>0.01618177427529245</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
@@ -4961,10 +4961,10 @@
         <v>329</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0004711536533741189</v>
+        <v>0.0009423073067482378</v>
       </c>
       <c r="D251" t="n">
-        <v>0.00520696154930394</v>
+        <v>0.009471615791859641</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
@@ -4979,10 +4979,10 @@
         <v>263</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0003766365071045388</v>
+        <v>0.0007532730142090776</v>
       </c>
       <c r="D252" t="n">
-        <v>0.004284066839794147</v>
+        <v>0.007814860665379217</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
@@ -4997,10 +4997,10 @@
         <v>236</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0003379704018124379</v>
+        <v>0.0006759408036248757</v>
       </c>
       <c r="D253" t="n">
-        <v>0.003897074338757232</v>
+        <v>0.007118207873889589</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
@@ -5015,10 +5015,10 @@
         <v>11</v>
       </c>
       <c r="C254" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
@@ -5033,10 +5033,10 @@
         <v>252</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0003608836493929421</v>
+        <v>0.0007217672987858843</v>
       </c>
       <c r="D255" t="n">
-        <v>0.004127129867997396</v>
+        <v>0.007532492437208909</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
@@ -5051,10 +5051,10 @@
         <v>427</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0006114972948047076</v>
+        <v>0.001222994589609415</v>
       </c>
       <c r="D256" t="n">
-        <v>0.006527957590937141</v>
+        <v>0.01183292059226487</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
         <v>65</v>
       </c>
       <c r="C257" t="n">
-        <v>9.308506829579858e-05</v>
+        <v>0.0001861701365915972</v>
       </c>
       <c r="D257" t="n">
-        <v>0.001246510593267229</v>
+        <v>0.002306851049942861</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
@@ -5087,10 +5087,10 @@
         <v>528</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0007561371701566407</v>
+        <v>0.001512274340313281</v>
       </c>
       <c r="D258" t="n">
-        <v>0.007840435015132662</v>
+        <v>0.01416859568995204</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
@@ -5105,10 +5105,10 @@
         <v>141</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0002019229943031938</v>
+        <v>0.0004038459886063876</v>
       </c>
       <c r="D259" t="n">
-        <v>0.002478384087631475</v>
+        <v>0.004552922186656563</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
@@ -5123,10 +5123,10 @@
         <v>997</v>
       </c>
       <c r="C260" t="n">
-        <v>0.001427781739860172</v>
+        <v>0.002855563479720344</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0134954056100805</v>
+        <v>0.02413524774044066</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
@@ -5141,10 +5141,10 @@
         <v>83</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0001188624718238659</v>
+        <v>0.0002377249436477317</v>
       </c>
       <c r="D261" t="n">
-        <v>0.001549778721876544</v>
+        <v>0.002861832500105356</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
@@ -5159,10 +5159,10 @@
         <v>808</v>
       </c>
       <c r="C262" t="n">
-        <v>0.001157119002815465</v>
+        <v>0.002314238005630931</v>
       </c>
       <c r="D262" t="n">
-        <v>0.01128798172711098</v>
+        <v>0.02026172544859103</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
@@ -5177,10 +5177,10 @@
         <v>215</v>
       </c>
       <c r="C263" t="n">
-        <v>0.000307896764363026</v>
+        <v>0.0006157935287260521</v>
       </c>
       <c r="D263" t="n">
-        <v>0.003591697556193154</v>
+        <v>0.006567601583660257</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
@@ -5195,10 +5195,10 @@
         <v>12</v>
       </c>
       <c r="C264" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
@@ -5213,10 +5213,10 @@
         <v>212</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0003036005304416815</v>
+        <v>0.0006072010608833629</v>
       </c>
       <c r="D265" t="n">
-        <v>0.003547735555990034</v>
+        <v>0.006488270051096705</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
@@ -5231,10 +5231,10 @@
         <v>286</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0004095743005015137</v>
+        <v>0.0008191486010030274</v>
       </c>
       <c r="D266" t="n">
-        <v>0.004609180099816408</v>
+        <v>0.008399211598629788</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
@@ -5249,10 +5249,10 @@
         <v>838</v>
       </c>
       <c r="C267" t="n">
-        <v>0.001200081342028911</v>
+        <v>0.002400162684057822</v>
       </c>
       <c r="D267" t="n">
-        <v>0.01164397174023613</v>
+        <v>0.02088778079641444</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
@@ -5267,10 +5267,10 @@
         <v>121</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0001732814348275635</v>
+        <v>0.000346562869655127</v>
       </c>
       <c r="D268" t="n">
-        <v>0.002165081398652356</v>
+        <v>0.003983599927649586</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
@@ -5285,10 +5285,10 @@
         <v>63</v>
       </c>
       <c r="C269" t="n">
-        <v>9.022091234823553e-05</v>
+        <v>0.0001804418246964711</v>
       </c>
       <c r="D269" t="n">
-        <v>0.00121222429169582</v>
+        <v>0.002244006758695169</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
@@ -5303,10 +5303,10 @@
         <v>439</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0006286822304900858</v>
+        <v>0.001257364460980172</v>
       </c>
       <c r="D270" t="n">
-        <v>0.006686275296382493</v>
+        <v>0.01211518613178482</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
@@ -5321,10 +5321,10 @@
         <v>973</v>
       </c>
       <c r="C271" t="n">
-        <v>0.001393411868489416</v>
+        <v>0.002786823736978831</v>
       </c>
       <c r="D271" t="n">
-        <v>0.01321952486472345</v>
+        <v>0.02365222599246807</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
@@ -5339,10 +5339,10 @@
         <v>124</v>
       </c>
       <c r="C272" t="n">
-        <v>0.000177577668748908</v>
+        <v>0.0003551553374978161</v>
       </c>
       <c r="D272" t="n">
-        <v>0.002212486737998161</v>
+        <v>0.004069818138498507</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
@@ -5357,10 +5357,10 @@
         <v>211</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0003021684524679</v>
+        <v>0.0006043369049357999</v>
       </c>
       <c r="D273" t="n">
-        <v>0.003533062125658419</v>
+        <v>0.006461787346381039</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
@@ -5375,10 +5375,10 @@
         <v>1123</v>
       </c>
       <c r="C274" t="n">
-        <v>0.001608223564556643</v>
+        <v>0.003216447129113286</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0149248233768012</v>
+        <v>0.02663319962448911</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
@@ -5393,10 +5393,10 @@
         <v>66</v>
       </c>
       <c r="C275" t="n">
-        <v>9.451714626958008e-05</v>
+        <v>0.0001890342925391602</v>
       </c>
       <c r="D275" t="n">
-        <v>0.001263605815700323</v>
+        <v>0.002338177338861486</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
@@ -5411,10 +5411,10 @@
         <v>730</v>
       </c>
       <c r="C276" t="n">
-        <v>0.001045416920860507</v>
+        <v>0.002090833841721014</v>
       </c>
       <c r="D276" t="n">
-        <v>0.01035141086079088</v>
+        <v>0.01861198787986074</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
@@ -5429,10 +5429,10 @@
         <v>456</v>
       </c>
       <c r="C277" t="n">
-        <v>0.0006530275560443715</v>
+        <v>0.001306055112088743</v>
       </c>
       <c r="D277" t="n">
-        <v>0.006909402794704392</v>
+        <v>0.01251275047732004</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
@@ -5447,10 +5447,10 @@
         <v>139</v>
       </c>
       <c r="C278" t="n">
-        <v>0.0001990588383556308</v>
+        <v>0.0003981176767112616</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0024473323617401</v>
+        <v>0.004496547046768938</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
@@ -5465,10 +5465,10 @@
         <v>579</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0008291731468194981</v>
+        <v>0.001658346293638996</v>
       </c>
       <c r="D279" t="n">
-        <v>0.008487448655939455</v>
+        <v>0.01531655101823992</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
@@ -5483,10 +5483,10 @@
         <v>45</v>
       </c>
       <c r="C280" t="n">
-        <v>6.444350882016824e-05</v>
+        <v>0.0001288870176403365</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0008971571020867349</v>
+        <v>0.001665427186533133</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
@@ -5501,10 +5501,10 @@
         <v>455</v>
       </c>
       <c r="C281" t="n">
-        <v>0.00065159547807059</v>
+        <v>0.00130319095614118</v>
       </c>
       <c r="D281" t="n">
-        <v>0.006896314380318656</v>
+        <v>0.01248943780449613</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
@@ -5519,10 +5519,10 @@
         <v>243</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0003479949476289085</v>
+        <v>0.000695989895257817</v>
       </c>
       <c r="D282" t="n">
-        <v>0.00399799076975006</v>
+        <v>0.007299991644242301</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
@@ -5537,10 +5537,10 @@
         <v>687</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0009838375679879017</v>
+        <v>0.001967675135975803</v>
       </c>
       <c r="D283" t="n">
-        <v>0.009827840977326262</v>
+        <v>0.01768800681867672</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
@@ -5555,10 +5555,10 @@
         <v>341</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0004883385890594971</v>
+        <v>0.0009766771781189942</v>
       </c>
       <c r="D284" t="n">
-        <v>0.005371641752020788</v>
+        <v>0.009766606325922581</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
@@ -5573,10 +5573,10 @@
         <v>18</v>
       </c>
       <c r="C285" t="n">
-        <v>2.57774035280673e-05</v>
+        <v>5.155480705613459e-05</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0003929387147716946</v>
+        <v>0.0007343226224872547</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
@@ -5591,10 +5591,10 @@
         <v>154</v>
       </c>
       <c r="C286" t="n">
-        <v>0.0002205400079623535</v>
+        <v>0.0004410800159247071</v>
       </c>
       <c r="D286" t="n">
-        <v>0.00267882713563276</v>
+        <v>0.004916574255340813</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         <v>68</v>
       </c>
       <c r="C287" t="n">
-        <v>9.738130221714312e-05</v>
+        <v>0.0001947626044342862</v>
       </c>
       <c r="D287" t="n">
-        <v>0.001297702812801916</v>
+        <v>0.002400643021169545</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
@@ -5627,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="C288" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
@@ -5645,10 +5645,10 @@
         <v>157</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0002248362418836981</v>
+        <v>0.0004496724837673962</v>
       </c>
       <c r="D289" t="n">
-        <v>0.002724753941066638</v>
+        <v>0.004999835398365879</v>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
@@ -5663,10 +5663,10 @@
         <v>148</v>
       </c>
       <c r="C290" t="n">
-        <v>0.0002119475401196644</v>
+        <v>0.0004238950802393289</v>
       </c>
       <c r="D290" t="n">
-        <v>0.002586608872653962</v>
+        <v>0.004749322665068595</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
@@ -5681,10 +5681,10 @@
         <v>42</v>
       </c>
       <c r="C291" t="n">
-        <v>6.014727489882369e-05</v>
+        <v>0.0001202945497976474</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0008433334281335923</v>
+        <v>0.001566372306469537</v>
       </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
@@ -5699,10 +5699,10 @@
         <v>361</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0005169801485351274</v>
+        <v>0.001033960297070255</v>
       </c>
       <c r="D292" t="n">
-        <v>0.005644184276925271</v>
+        <v>0.01025440825678029</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
@@ -5717,10 +5717,10 @@
         <v>888</v>
       </c>
       <c r="C293" t="n">
-        <v>0.001271685240717987</v>
+        <v>0.002543370481435973</v>
       </c>
       <c r="D293" t="n">
-        <v>0.01223239457594722</v>
+        <v>0.02192141867045847</v>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
@@ -5735,10 +5735,10 @@
         <v>832</v>
       </c>
       <c r="C294" t="n">
-        <v>0.001191488874186222</v>
+        <v>0.002382977748372444</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0115729538404219</v>
+        <v>0.02076292993247137</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
@@ -5753,10 +5753,10 @@
         <v>74</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0001059737700598322</v>
+        <v>0.0002119475401196644</v>
       </c>
       <c r="D295" t="n">
-        <v>0.001399278206386813</v>
+        <v>0.002586608872653962</v>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
@@ -5771,10 +5771,10 @@
         <v>333</v>
       </c>
       <c r="C296" t="n">
-        <v>0.000476881965269245</v>
+        <v>0.00095376393053849</v>
       </c>
       <c r="D296" t="n">
-        <v>0.005261953829565981</v>
+        <v>0.009570143728593472</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
@@ -5789,10 +5789,10 @@
         <v>633</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0009065053574036999</v>
+        <v>0.0018130107148074</v>
       </c>
       <c r="D297" t="n">
-        <v>0.009162409378787565</v>
+        <v>0.01651180804276773</v>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
@@ -5807,10 +5807,10 @@
         <v>115</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0001646889669848744</v>
+        <v>0.0003293779339697488</v>
       </c>
       <c r="D298" t="n">
-        <v>0.002069805744715831</v>
+        <v>0.003810233555461914</v>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
@@ -5825,10 +5825,10 @@
         <v>116</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0001661210449586559</v>
+        <v>0.0003322420899173118</v>
       </c>
       <c r="D299" t="n">
-        <v>0.002085729046839215</v>
+        <v>0.003839216003761117</v>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
@@ -5843,10 +5843,10 @@
         <v>304</v>
       </c>
       <c r="C300" t="n">
-        <v>0.000435351704029581</v>
+        <v>0.000870703408059162</v>
       </c>
       <c r="D300" t="n">
-        <v>0.004860932951285288</v>
+        <v>0.008851162494511415</v>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
@@ -5861,10 +5861,10 @@
         <v>75</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0001074058480336137</v>
+        <v>0.0002148116960672275</v>
       </c>
       <c r="D301" t="n">
-        <v>0.001416107422198207</v>
+        <v>0.002617403148329187</v>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
@@ -5879,10 +5879,10 @@
         <v>83</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0001188624718238659</v>
+        <v>0.0002377249436477317</v>
       </c>
       <c r="D302" t="n">
-        <v>0.001549778721876544</v>
+        <v>0.002861832500105356</v>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
@@ -5897,10 +5897,10 @@
         <v>572</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0008191486010030274</v>
+        <v>0.001638297202006055</v>
       </c>
       <c r="D303" t="n">
-        <v>0.008399211598629788</v>
+        <v>0.01516012599525352</v>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
@@ -5915,10 +5915,10 @@
         <v>224</v>
       </c>
       <c r="C304" t="n">
-        <v>0.0003207854661270597</v>
+        <v>0.0006415709322541193</v>
       </c>
       <c r="D304" t="n">
-        <v>0.003723069353458666</v>
+        <v>0.006804567774663212</v>
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
@@ -5933,10 +5933,10 @@
         <v>52</v>
       </c>
       <c r="C305" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D305" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
@@ -5951,10 +5951,10 @@
         <v>103</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0001475040312994962</v>
+        <v>0.0002950080625989924</v>
       </c>
       <c r="D306" t="n">
-        <v>0.001877277610521598</v>
+        <v>0.003459547158444203</v>
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
@@ -5969,10 +5969,10 @@
         <v>262</v>
       </c>
       <c r="C307" t="n">
-        <v>0.0003752044291307573</v>
+        <v>0.0007504088582615146</v>
       </c>
       <c r="D307" t="n">
-        <v>0.004269839731214481</v>
+        <v>0.007789270604167449</v>
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
@@ -5987,10 +5987,10 @@
         <v>327</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0004682894974265559</v>
+        <v>0.0009365789948531118</v>
       </c>
       <c r="D308" t="n">
-        <v>0.005179427806074909</v>
+        <v>0.009422276617296707</v>
       </c>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
@@ -6005,10 +6005,10 @@
         <v>273</v>
       </c>
       <c r="C309" t="n">
-        <v>0.000390957286842354</v>
+        <v>0.000781914573684708</v>
       </c>
       <c r="D309" t="n">
-        <v>0.004425910697382577</v>
+        <v>0.008069906821080445</v>
       </c>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
@@ -6023,10 +6023,10 @@
         <v>47</v>
       </c>
       <c r="C310" t="n">
-        <v>6.730766476773127e-05</v>
+        <v>0.0001346153295354625</v>
       </c>
       <c r="D310" t="n">
-        <v>0.0009328081538784562</v>
+        <v>0.00173100097822145</v>
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
@@ -6041,10 +6041,10 @@
         <v>101</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0001446398753519332</v>
+        <v>0.0002892797507038663</v>
       </c>
       <c r="D311" t="n">
-        <v>0.001844917341944672</v>
+        <v>0.003400554933185477</v>
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
@@ -6059,10 +6059,10 @@
         <v>411</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0005885840472242032</v>
+        <v>0.001177168094448406</v>
       </c>
       <c r="D312" t="n">
-        <v>0.006315779893834802</v>
+        <v>0.0114543916932212</v>
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
@@ -6077,10 +6077,10 @@
         <v>303</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0004339196260557995</v>
+        <v>0.000867839252111599</v>
       </c>
       <c r="D313" t="n">
-        <v>0.004847005690208626</v>
+        <v>0.008826172128305653</v>
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
@@ -6095,10 +6095,10 @@
         <v>181</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0002592061132544545</v>
+        <v>0.000518412226508909</v>
       </c>
       <c r="D314" t="n">
-        <v>0.003088081226103568</v>
+        <v>0.005657750225698226</v>
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
@@ -6113,10 +6113,10 @@
         <v>275</v>
       </c>
       <c r="C315" t="n">
-        <v>0.000393821442789917</v>
+        <v>0.000787642885579834</v>
       </c>
       <c r="D315" t="n">
-        <v>0.004454187748910548</v>
+        <v>0.008120732612241263</v>
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
@@ -6131,10 +6131,10 @@
         <v>44</v>
       </c>
       <c r="C316" t="n">
-        <v>6.301143084638672e-05</v>
+        <v>0.0001260228616927734</v>
       </c>
       <c r="D316" t="n">
-        <v>0.0008792632012954694</v>
+        <v>0.001632503540898165</v>
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
@@ -6149,10 +6149,10 @@
         <v>902</v>
       </c>
       <c r="C317" t="n">
-        <v>0.001291734332350928</v>
+        <v>0.002583468664701856</v>
       </c>
       <c r="D317" t="n">
-        <v>0.01239609609718734</v>
+        <v>0.02220872352967282</v>
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
@@ -6167,10 +6167,10 @@
         <v>197</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0002821193608349588</v>
+        <v>0.0005642387216699175</v>
       </c>
       <c r="D318" t="n">
-        <v>0.003326584122470867</v>
+        <v>0.006088929523271816</v>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
@@ -6185,10 +6185,10 @@
         <v>471</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0006745087256510942</v>
+        <v>0.001349017451302188</v>
       </c>
       <c r="D319" t="n">
-        <v>0.007105190786633714</v>
+        <v>0.01286136412196524</v>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
@@ -6203,10 +6203,10 @@
         <v>621</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0008893204217183217</v>
+        <v>0.001778640843436643</v>
       </c>
       <c r="D320" t="n">
-        <v>0.009013270535363143</v>
+        <v>0.01624790022728964</v>
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
@@ -6221,10 +6221,10 @@
         <v>434</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0006215218406211781</v>
+        <v>0.001243043681242356</v>
       </c>
       <c r="D321" t="n">
-        <v>0.006620393025180578</v>
+        <v>0.0119977423691188</v>
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
@@ -6239,10 +6239,10 @@
         <v>192</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0002749589709660512</v>
+        <v>0.0005499179419321023</v>
       </c>
       <c r="D322" t="n">
-        <v>0.003252351094285889</v>
+        <v>0.005954784246639676</v>
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
@@ -6257,10 +6257,10 @@
         <v>72</v>
       </c>
       <c r="C323" t="n">
-        <v>0.0001031096141122692</v>
+        <v>0.0002062192282245384</v>
       </c>
       <c r="D323" t="n">
-        <v>0.00136553563086224</v>
+        <v>0.002524852033499942</v>
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
@@ -6275,10 +6275,10 @@
         <v>155</v>
       </c>
       <c r="C324" t="n">
-        <v>0.000221972085936135</v>
+        <v>0.0004439441718722701</v>
       </c>
       <c r="D324" t="n">
-        <v>0.002694149371754108</v>
+        <v>0.004944354571635946</v>
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
@@ -6293,10 +6293,10 @@
         <v>75</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0001074058480336137</v>
+        <v>0.0002148116960672275</v>
       </c>
       <c r="D325" t="n">
-        <v>0.001416107422198207</v>
+        <v>0.002617403148329187</v>
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
@@ -6311,10 +6311,10 @@
         <v>321</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0004596970295838668</v>
+        <v>0.0009193940591677336</v>
       </c>
       <c r="D326" t="n">
-        <v>0.005096674314576112</v>
+        <v>0.009273954569984491</v>
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
@@ -6329,10 +6329,10 @@
         <v>385</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0005513500199058838</v>
+        <v>0.001102700039811768</v>
       </c>
       <c r="D327" t="n">
-        <v>0.005968222757651605</v>
+        <v>0.01083374547549144</v>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
@@ -6347,10 +6347,10 @@
         <v>1092</v>
       </c>
       <c r="C328" t="n">
-        <v>0.001563829147369416</v>
+        <v>0.003127658294738832</v>
       </c>
       <c r="D328" t="n">
-        <v>0.01457598449479148</v>
+        <v>0.02602431069484412</v>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
@@ -6365,10 +6365,10 @@
         <v>39</v>
       </c>
       <c r="C329" t="n">
-        <v>5.585104097747914e-05</v>
+        <v>0.0001117020819549583</v>
       </c>
       <c r="D329" t="n">
-        <v>0.0007890666515591065</v>
+        <v>0.001466431221163255</v>
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
@@ -6383,10 +6383,10 @@
         <v>86</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0001231587057452104</v>
+        <v>0.0002463174114904208</v>
       </c>
       <c r="D330" t="n">
-        <v>0.001599485975731821</v>
+        <v>0.002952654539973221</v>
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
@@ -6401,10 +6401,10 @@
         <v>382</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0005470537859845393</v>
+        <v>0.001094107571969079</v>
       </c>
       <c r="D331" t="n">
-        <v>0.005927891069520014</v>
+        <v>0.01076167456707095</v>
       </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
@@ -6419,10 +6419,10 @@
         <v>91</v>
       </c>
       <c r="C332" t="n">
-        <v>0.000130319095614118</v>
+        <v>0.000260638191228236</v>
       </c>
       <c r="D332" t="n">
-        <v>0.001681854445470464</v>
+        <v>0.003103070699712692</v>
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
@@ -6437,10 +6437,10 @@
         <v>220</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0003150571542319336</v>
+        <v>0.0006301143084638673</v>
       </c>
       <c r="D333" t="n">
-        <v>0.003664775948570959</v>
+        <v>0.006699437588678052</v>
       </c>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
@@ -6455,10 +6455,10 @@
         <v>433</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0006200897626473966</v>
+        <v>0.001240179525294793</v>
       </c>
       <c r="D334" t="n">
-        <v>0.006607202333088095</v>
+        <v>0.01197422514088139</v>
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
@@ -6473,10 +6473,10 @@
         <v>243</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0003479949476289085</v>
+        <v>0.000695989895257817</v>
       </c>
       <c r="D335" t="n">
-        <v>0.00399799076975006</v>
+        <v>0.007299991644242301</v>
       </c>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
@@ -6491,10 +6491,10 @@
         <v>443</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0006344105423852118</v>
+        <v>0.001268821084770424</v>
       </c>
       <c r="D336" t="n">
-        <v>0.006738896334649113</v>
+        <v>0.0122089715845278</v>
       </c>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
@@ -6509,10 +6509,10 @@
         <v>36</v>
       </c>
       <c r="C337" t="n">
-        <v>5.155480705613459e-05</v>
+        <v>0.0001031096141122692</v>
       </c>
       <c r="D337" t="n">
-        <v>0.0007343226224872547</v>
+        <v>0.00136553563086224</v>
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
@@ -6527,10 +6527,10 @@
         <v>7</v>
       </c>
       <c r="C338" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
@@ -6545,10 +6545,10 @@
         <v>154</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0002205400079623535</v>
+        <v>0.0004410800159247071</v>
       </c>
       <c r="D339" t="n">
-        <v>0.00267882713563276</v>
+        <v>0.004916574255340813</v>
       </c>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
@@ -6563,10 +6563,10 @@
         <v>151</v>
       </c>
       <c r="C340" t="n">
-        <v>0.000216243774041009</v>
+        <v>0.000432487548082018</v>
       </c>
       <c r="D340" t="n">
-        <v>0.002632779579274414</v>
+        <v>0.004833071610466811</v>
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
@@ -6581,10 +6581,10 @@
         <v>278</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0003981176767112616</v>
+        <v>0.0007962353534225232</v>
       </c>
       <c r="D341" t="n">
-        <v>0.004496547046768938</v>
+        <v>0.008196858740115352</v>
       </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
@@ -6599,10 +6599,10 @@
         <v>987</v>
       </c>
       <c r="C342" t="n">
-        <v>0.001413460960122357</v>
+        <v>0.002826921920244713</v>
       </c>
       <c r="D342" t="n">
-        <v>0.01338060202988456</v>
+        <v>0.02393428213952441</v>
       </c>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
@@ -6617,10 +6617,10 @@
         <v>24</v>
       </c>
       <c r="C343" t="n">
-        <v>3.43698713707564e-05</v>
+        <v>6.873974274151279e-05</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0005096535008980054</v>
+        <v>0.0009505672590544978</v>
       </c>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
@@ -6635,10 +6635,10 @@
         <v>149</v>
       </c>
       <c r="C344" t="n">
-        <v>0.000213379618093446</v>
+        <v>0.0004267592361868919</v>
       </c>
       <c r="D344" t="n">
-        <v>0.002602012943603324</v>
+        <v>0.004777266651019756</v>
       </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
@@ -6653,10 +6653,10 @@
         <v>840</v>
       </c>
       <c r="C345" t="n">
-        <v>0.001202945497976474</v>
+        <v>0.002405890995952948</v>
       </c>
       <c r="D345" t="n">
-        <v>0.01166762461834905</v>
+        <v>0.02092935824074516</v>
       </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
@@ -6671,10 +6671,10 @@
         <v>121</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0001732814348275635</v>
+        <v>0.000346562869655127</v>
       </c>
       <c r="D346" t="n">
-        <v>0.002165081398652356</v>
+        <v>0.003983599927649586</v>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
@@ -6689,10 +6689,10 @@
         <v>83</v>
       </c>
       <c r="C347" t="n">
-        <v>0.0001188624718238659</v>
+        <v>0.0002377249436477317</v>
       </c>
       <c r="D347" t="n">
-        <v>0.001549778721876544</v>
+        <v>0.002861832500105356</v>
       </c>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
@@ -6707,10 +6707,10 @@
         <v>10</v>
       </c>
       <c r="C348" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D348" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
@@ -6725,10 +6725,10 @@
         <v>121</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0001732814348275635</v>
+        <v>0.000346562869655127</v>
       </c>
       <c r="D349" t="n">
-        <v>0.002165081398652356</v>
+        <v>0.003983599927649586</v>
       </c>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
         <v>32</v>
       </c>
       <c r="C350" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D350" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
@@ -6761,10 +6761,10 @@
         <v>403</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0005771274234339512</v>
+        <v>0.001154254846867902</v>
       </c>
       <c r="D351" t="n">
-        <v>0.006209211505258503</v>
+        <v>0.0112641681636491</v>
       </c>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
@@ -6779,10 +6779,10 @@
         <v>518</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0007418163904188255</v>
+        <v>0.001483632780837651</v>
       </c>
       <c r="D352" t="n">
-        <v>0.007712405549802397</v>
+        <v>0.01394117831876714</v>
       </c>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
@@ -6797,10 +6797,10 @@
         <v>75</v>
       </c>
       <c r="C353" t="n">
-        <v>0.0001074058480336137</v>
+        <v>0.0002148116960672275</v>
       </c>
       <c r="D353" t="n">
-        <v>0.001416107422198207</v>
+        <v>0.002617403148329187</v>
       </c>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
@@ -6815,10 +6815,10 @@
         <v>42</v>
       </c>
       <c r="C354" t="n">
-        <v>6.014727489882369e-05</v>
+        <v>0.0001202945497976474</v>
       </c>
       <c r="D354" t="n">
-        <v>0.0008433334281335923</v>
+        <v>0.001566372306469537</v>
       </c>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
@@ -6833,10 +6833,10 @@
         <v>252</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0003608836493929421</v>
+        <v>0.0007217672987858843</v>
       </c>
       <c r="D355" t="n">
-        <v>0.004127129867997396</v>
+        <v>0.007532492437208909</v>
       </c>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
@@ -6851,10 +6851,10 @@
         <v>391</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0005599424877485729</v>
+        <v>0.001119884975497146</v>
       </c>
       <c r="D356" t="n">
-        <v>0.006048741613948794</v>
+        <v>0.01097759825240044</v>
       </c>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
@@ -6869,10 +6869,10 @@
         <v>502</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0007189031428383213</v>
+        <v>0.001437806285676643</v>
       </c>
       <c r="D357" t="n">
-        <v>0.007506725488301474</v>
+        <v>0.0135756446909263</v>
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         <v>301</v>
       </c>
       <c r="C358" t="n">
-        <v>0.0004310554701082365</v>
+        <v>0.000862110940216473</v>
       </c>
       <c r="D358" t="n">
-        <v>0.004819130689481398</v>
+        <v>0.008776150438746322</v>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
@@ -6905,10 +6905,10 @@
         <v>155</v>
       </c>
       <c r="C359" t="n">
-        <v>0.000221972085936135</v>
+        <v>0.0004439441718722701</v>
       </c>
       <c r="D359" t="n">
-        <v>0.002694149371754108</v>
+        <v>0.004944354571635946</v>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
@@ -6923,10 +6923,10 @@
         <v>226</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0003236496220746227</v>
+        <v>0.0006472992441492455</v>
       </c>
       <c r="D360" t="n">
-        <v>0.003752160548299345</v>
+        <v>0.006857021852449445</v>
       </c>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
@@ -6941,10 +6941,10 @@
         <v>186</v>
       </c>
       <c r="C361" t="n">
-        <v>0.0002663665031233621</v>
+        <v>0.0005327330062467241</v>
       </c>
       <c r="D361" t="n">
-        <v>0.003162915691221851</v>
+        <v>0.005793098376196978</v>
       </c>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         <v>211</v>
       </c>
       <c r="C362" t="n">
-        <v>0.0003021684524679</v>
+        <v>0.0006043369049357999</v>
       </c>
       <c r="D362" t="n">
-        <v>0.003533062125658419</v>
+        <v>0.006461787346381039</v>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
@@ -6977,10 +6977,10 @@
         <v>196</v>
       </c>
       <c r="C363" t="n">
-        <v>0.0002806872828611772</v>
+        <v>0.0005613745657223545</v>
       </c>
       <c r="D363" t="n">
-        <v>0.003311758707760563</v>
+        <v>0.006062142849798773</v>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
@@ -6995,10 +6995,10 @@
         <v>317</v>
       </c>
       <c r="C364" t="n">
-        <v>0.0004539687176887407</v>
+        <v>0.0009079374353774814</v>
       </c>
       <c r="D364" t="n">
-        <v>0.005041376855828796</v>
+        <v>0.00917481627628011</v>
       </c>
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
@@ -7013,10 +7013,10 @@
         <v>581</v>
       </c>
       <c r="C365" t="n">
-        <v>0.0008320373027670611</v>
+        <v>0.001664074605534122</v>
       </c>
       <c r="D365" t="n">
-        <v>0.008512627035877166</v>
+        <v>0.01536117946622021</v>
       </c>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr"/>
@@ -7031,10 +7031,10 @@
         <v>64</v>
       </c>
       <c r="C366" t="n">
-        <v>9.165299032201706e-05</v>
+        <v>0.0001833059806440341</v>
       </c>
       <c r="D366" t="n">
-        <v>0.001229383584167986</v>
+        <v>0.002275461187691937</v>
       </c>
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
@@ -7049,10 +7049,10 @@
         <v>176</v>
       </c>
       <c r="C367" t="n">
-        <v>0.0002520457233855469</v>
+        <v>0.0005040914467710938</v>
       </c>
       <c r="D367" t="n">
-        <v>0.003012961358410783</v>
+        <v>0.005521831270050474</v>
       </c>
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
@@ -7067,10 +7067,10 @@
         <v>103</v>
       </c>
       <c r="C368" t="n">
-        <v>0.0001475040312994962</v>
+        <v>0.0002950080625989924</v>
       </c>
       <c r="D368" t="n">
-        <v>0.001877277610521598</v>
+        <v>0.003459547158444203</v>
       </c>
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
@@ -7085,10 +7085,10 @@
         <v>351</v>
       </c>
       <c r="C369" t="n">
-        <v>0.0005026593687973123</v>
+        <v>0.001005318737594625</v>
       </c>
       <c r="D369" t="n">
-        <v>0.005508207363672146</v>
+        <v>0.01001109598974967</v>
       </c>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
@@ -7103,10 +7103,10 @@
         <v>25</v>
       </c>
       <c r="C370" t="n">
-        <v>3.580194934453791e-05</v>
+        <v>7.160389868907582e-05</v>
       </c>
       <c r="D370" t="n">
-        <v>0.0005287805545632133</v>
+        <v>0.0009859572104373509</v>
       </c>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr"/>
@@ -7121,10 +7121,10 @@
         <v>28</v>
       </c>
       <c r="C371" t="n">
-        <v>4.009818326588246e-05</v>
+        <v>8.019636653176492e-05</v>
       </c>
       <c r="D371" t="n">
-        <v>0.0005856782189799806</v>
+        <v>0.001091160071428196</v>
       </c>
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
@@ -7139,10 +7139,10 @@
         <v>400</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0005728311895126066</v>
+        <v>0.001145662379025213</v>
       </c>
       <c r="D372" t="n">
-        <v>0.006169164114960986</v>
+        <v>0.01119266585089676</v>
       </c>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
@@ -7157,10 +7157,10 @@
         <v>172</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0002463174114904208</v>
+        <v>0.0004926348229808416</v>
       </c>
       <c r="D373" t="n">
-        <v>0.002952654539973221</v>
+        <v>0.005412674256965599</v>
       </c>
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
@@ -7175,10 +7175,10 @@
         <v>143</v>
       </c>
       <c r="C374" t="n">
-        <v>0.0002047871502507569</v>
+        <v>0.0004095743005015137</v>
       </c>
       <c r="D374" t="n">
-        <v>0.002509377200158961</v>
+        <v>0.004609180099816408</v>
       </c>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
@@ -7193,10 +7193,10 @@
         <v>112</v>
       </c>
       <c r="C375" t="n">
-        <v>0.0001603927330635298</v>
+        <v>0.0003207854661270597</v>
       </c>
       <c r="D375" t="n">
-        <v>0.002021927409792863</v>
+        <v>0.003723069353458666</v>
       </c>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
@@ -7211,10 +7211,10 @@
         <v>245</v>
       </c>
       <c r="C376" t="n">
-        <v>0.0003508591035764715</v>
+        <v>0.0007017182071529431</v>
       </c>
       <c r="D376" t="n">
-        <v>0.004026746981912443</v>
+        <v>0.007351775756671943</v>
       </c>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
@@ -7229,10 +7229,10 @@
         <v>316</v>
       </c>
       <c r="C377" t="n">
-        <v>0.0004525366397149592</v>
+        <v>0.0009050732794299184</v>
       </c>
       <c r="D377" t="n">
-        <v>0.005027536248409349</v>
+        <v>0.00914999921738878</v>
       </c>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
@@ -7247,10 +7247,10 @@
         <v>113</v>
       </c>
       <c r="C378" t="n">
-        <v>0.0001618248110373114</v>
+        <v>0.0003236496220746227</v>
       </c>
       <c r="D378" t="n">
-        <v>0.002037905085186984</v>
+        <v>0.003752160548299345</v>
       </c>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
@@ -7265,10 +7265,10 @@
         <v>102</v>
       </c>
       <c r="C379" t="n">
-        <v>0.0001460719533257147</v>
+        <v>0.0002921439066514294</v>
       </c>
       <c r="D379" t="n">
-        <v>0.001861107604100239</v>
+        <v>0.003430071301549049</v>
       </c>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
@@ -7283,10 +7283,10 @@
         <v>249</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0003565874154715976</v>
+        <v>0.0007131748309431952</v>
       </c>
       <c r="D380" t="n">
-        <v>0.004084158483878075</v>
+        <v>0.007455142136812954</v>
       </c>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
@@ -7301,10 +7301,10 @@
         <v>44</v>
       </c>
       <c r="C381" t="n">
-        <v>6.301143084638672e-05</v>
+        <v>0.0001260228616927734</v>
       </c>
       <c r="D381" t="n">
-        <v>0.0008792632012954694</v>
+        <v>0.001632503540898165</v>
       </c>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
@@ -7319,10 +7319,10 @@
         <v>237</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0003394024797862194</v>
+        <v>0.0006788049595724388</v>
       </c>
       <c r="D382" t="n">
-        <v>0.003911516942766522</v>
+        <v>0.007144228925960606</v>
       </c>
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr"/>
@@ -7337,10 +7337,10 @@
         <v>325</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0004654253414789929</v>
+        <v>0.0009308506829579857</v>
       </c>
       <c r="D383" t="n">
-        <v>0.005151868789883529</v>
+        <v>0.009372886896809072</v>
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
@@ -7355,10 +7355,10 @@
         <v>294</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0004210309242917658</v>
+        <v>0.0008420618485835316</v>
       </c>
       <c r="D384" t="n">
-        <v>0.004721350759286194</v>
+        <v>0.008600639669988856</v>
       </c>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
@@ -7373,10 +7373,10 @@
         <v>70</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0001002454581647062</v>
+        <v>0.0002004909163294123</v>
       </c>
       <c r="D385" t="n">
-        <v>0.001331678259917171</v>
+        <v>0.002462865603504929</v>
       </c>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
@@ -7391,10 +7391,10 @@
         <v>142</v>
       </c>
       <c r="C386" t="n">
-        <v>0.0002033550722769753</v>
+        <v>0.0004067101445539507</v>
       </c>
       <c r="D386" t="n">
-        <v>0.0024938879187856</v>
+        <v>0.004581065693017249</v>
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
@@ -7409,10 +7409,10 @@
         <v>143</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0002047871502507569</v>
+        <v>0.0004095743005015137</v>
       </c>
       <c r="D387" t="n">
-        <v>0.002509377200158961</v>
+        <v>0.004609180099816408</v>
       </c>
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr"/>
@@ -7427,10 +7427,10 @@
         <v>31</v>
       </c>
       <c r="C388" t="n">
-        <v>4.439441718722701e-05</v>
+        <v>8.878883437445401e-05</v>
       </c>
       <c r="D388" t="n">
-        <v>0.0006419105188739944</v>
+        <v>0.001195032203373535</v>
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
@@ -7445,10 +7445,10 @@
         <v>39</v>
       </c>
       <c r="C389" t="n">
-        <v>5.585104097747914e-05</v>
+        <v>0.0001117020819549583</v>
       </c>
       <c r="D389" t="n">
-        <v>0.0007890666515591065</v>
+        <v>0.001466431221163255</v>
       </c>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr"/>
@@ -7463,10 +7463,10 @@
         <v>554</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0007933711974749601</v>
+        <v>0.00158674239494992</v>
       </c>
       <c r="D390" t="n">
-        <v>0.008171498299547405</v>
+        <v>0.01475625420414489</v>
       </c>
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr"/>
@@ -7481,10 +7481,10 @@
         <v>427</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0006114972948047076</v>
+        <v>0.001222994589609415</v>
       </c>
       <c r="D391" t="n">
-        <v>0.006527957590937141</v>
+        <v>0.01183292059226487</v>
       </c>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         <v>3</v>
       </c>
       <c r="C392" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D392" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
@@ -7517,10 +7517,10 @@
         <v>14</v>
       </c>
       <c r="C393" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D393" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
@@ -7535,10 +7535,10 @@
         <v>51</v>
       </c>
       <c r="C394" t="n">
-        <v>7.303597666285734e-05</v>
+        <v>0.0001460719533257147</v>
       </c>
       <c r="D394" t="n">
-        <v>0.001003589778712977</v>
+        <v>0.001861107604100239</v>
       </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
@@ -7553,10 +7553,10 @@
         <v>246</v>
       </c>
       <c r="C395" t="n">
-        <v>0.000352291181550253</v>
+        <v>0.0007045823631005061</v>
       </c>
       <c r="D395" t="n">
-        <v>0.004041112421381229</v>
+        <v>0.007377642479661952</v>
       </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
@@ -7571,10 +7571,10 @@
         <v>216</v>
       </c>
       <c r="C396" t="n">
-        <v>0.0003093288423368076</v>
+        <v>0.0006186576846736151</v>
       </c>
       <c r="D396" t="n">
-        <v>0.003606332277091394</v>
+        <v>0.006594006869509173</v>
       </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
@@ -7589,10 +7589,10 @@
         <v>49</v>
       </c>
       <c r="C397" t="n">
-        <v>7.017182071529431e-05</v>
+        <v>0.0001403436414305886</v>
       </c>
       <c r="D397" t="n">
-        <v>0.0009682833183707295</v>
+        <v>0.00179622299531087</v>
       </c>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
@@ -7607,10 +7607,10 @@
         <v>346</v>
       </c>
       <c r="C398" t="n">
-        <v>0.0004954989789284047</v>
+        <v>0.0009909979578568095</v>
       </c>
       <c r="D398" t="n">
-        <v>0.005439999201043904</v>
+        <v>0.009889000444230999</v>
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
@@ -7625,10 +7625,10 @@
         <v>268</v>
       </c>
       <c r="C399" t="n">
-        <v>0.0003837968969734464</v>
+        <v>0.0007675937939468928</v>
       </c>
       <c r="D399" t="n">
-        <v>0.004355085138535367</v>
+        <v>0.007942576483123843</v>
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
@@ -7643,10 +7643,10 @@
         <v>29</v>
       </c>
       <c r="C400" t="n">
-        <v>4.153026123966398e-05</v>
+        <v>8.306052247932796e-05</v>
       </c>
       <c r="D400" t="n">
-        <v>0.0006044927841891316</v>
+        <v>0.001125925045898935</v>
       </c>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
@@ -7661,10 +7661,10 @@
         <v>365</v>
       </c>
       <c r="C401" t="n">
-        <v>0.0005227084604302535</v>
+        <v>0.001045416920860507</v>
       </c>
       <c r="D401" t="n">
-        <v>0.005698413890825693</v>
+        <v>0.01035141086079088</v>
       </c>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
@@ -7679,10 +7679,10 @@
         <v>275</v>
       </c>
       <c r="C402" t="n">
-        <v>0.000393821442789917</v>
+        <v>0.000787642885579834</v>
       </c>
       <c r="D402" t="n">
-        <v>0.004454187748910548</v>
+        <v>0.008120732612241263</v>
       </c>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
@@ -7697,10 +7697,10 @@
         <v>49</v>
       </c>
       <c r="C403" t="n">
-        <v>7.017182071529431e-05</v>
+        <v>0.0001403436414305886</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0009682833183707295</v>
+        <v>0.00179622299531087</v>
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
@@ -7715,10 +7715,10 @@
         <v>155</v>
       </c>
       <c r="C404" t="n">
-        <v>0.000221972085936135</v>
+        <v>0.0004439441718722701</v>
       </c>
       <c r="D404" t="n">
-        <v>0.002694149371754108</v>
+        <v>0.004944354571635946</v>
       </c>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
@@ -7733,10 +7733,10 @@
         <v>109</v>
       </c>
       <c r="C405" t="n">
-        <v>0.0001560964991421853</v>
+        <v>0.0003121929982843706</v>
       </c>
       <c r="D405" t="n">
-        <v>0.001973883032992519</v>
+        <v>0.003635573067700667</v>
       </c>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
@@ -7751,10 +7751,10 @@
         <v>20</v>
       </c>
       <c r="C406" t="n">
-        <v>2.864155947563033e-05</v>
+        <v>5.728311895126066e-05</v>
       </c>
       <c r="D406" t="n">
-        <v>0.0004322449663271634</v>
+        <v>0.0008072068137030663</v>
       </c>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
         <v>15</v>
       </c>
       <c r="C407" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D407" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
@@ -7787,10 +7787,10 @@
         <v>317</v>
       </c>
       <c r="C408" t="n">
-        <v>0.0004539687176887407</v>
+        <v>0.0009079374353774814</v>
       </c>
       <c r="D408" t="n">
-        <v>0.005041376855828796</v>
+        <v>0.00917481627628011</v>
       </c>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
@@ -7805,10 +7805,10 @@
         <v>152</v>
       </c>
       <c r="C409" t="n">
-        <v>0.0002176758520147905</v>
+        <v>0.000435351704029581</v>
       </c>
       <c r="D409" t="n">
-        <v>0.002648142327657435</v>
+        <v>0.004860932951285288</v>
       </c>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
@@ -7823,10 +7823,10 @@
         <v>239</v>
       </c>
       <c r="C410" t="n">
-        <v>0.0003422666357337824</v>
+        <v>0.0006845332714675649</v>
       </c>
       <c r="D410" t="n">
-        <v>0.003940376034781737</v>
+        <v>0.00719621879809591</v>
       </c>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
@@ -7841,10 +7841,10 @@
         <v>18</v>
       </c>
       <c r="C411" t="n">
-        <v>2.57774035280673e-05</v>
+        <v>5.155480705613459e-05</v>
       </c>
       <c r="D411" t="n">
-        <v>0.0003929387147716946</v>
+        <v>0.0007343226224872547</v>
       </c>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
@@ -7859,10 +7859,10 @@
         <v>101</v>
       </c>
       <c r="C412" t="n">
-        <v>0.0001446398753519332</v>
+        <v>0.0002892797507038663</v>
       </c>
       <c r="D412" t="n">
-        <v>0.001844917341944672</v>
+        <v>0.003400554933185477</v>
       </c>
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
@@ -7877,10 +7877,10 @@
         <v>95</v>
       </c>
       <c r="C413" t="n">
-        <v>0.0001360474075092441</v>
+        <v>0.0002720948150184882</v>
       </c>
       <c r="D413" t="n">
-        <v>0.001747338879581325</v>
+        <v>0.003222582944144162</v>
       </c>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
@@ -7895,10 +7895,10 @@
         <v>127</v>
       </c>
       <c r="C414" t="n">
-        <v>0.0001818739026702526</v>
+        <v>0.0003637478053405052</v>
       </c>
       <c r="D414" t="n">
-        <v>0.002259742107339777</v>
+        <v>0.004155736409339048</v>
       </c>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
@@ -7913,10 +7913,10 @@
         <v>575</v>
       </c>
       <c r="C415" t="n">
-        <v>0.0008234448349243719</v>
+        <v>0.001646889669848744</v>
       </c>
       <c r="D415" t="n">
-        <v>0.008437049026778371</v>
+        <v>0.015227208383708</v>
       </c>
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
@@ -7931,10 +7931,10 @@
         <v>281</v>
       </c>
       <c r="C416" t="n">
-        <v>0.0004024139106326061</v>
+        <v>0.0008048278212652122</v>
       </c>
       <c r="D416" t="n">
-        <v>0.004538839456760296</v>
+        <v>0.00827285109225538</v>
       </c>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
@@ -7949,10 +7949,10 @@
         <v>6</v>
       </c>
       <c r="C417" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D417" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         <v>34</v>
       </c>
       <c r="C418" t="n">
-        <v>4.869065110857156e-05</v>
+        <v>9.738130221714312e-05</v>
       </c>
       <c r="D418" t="n">
-        <v>0.0006975420575095294</v>
+        <v>0.001297702812801916</v>
       </c>
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
@@ -7985,10 +7985,10 @@
         <v>401</v>
       </c>
       <c r="C419" t="n">
-        <v>0.0005742632674863881</v>
+        <v>0.001148526534972776</v>
       </c>
       <c r="D419" t="n">
-        <v>0.006182518393042162</v>
+        <v>0.01121651025111155</v>
       </c>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr"/>
@@ -8003,10 +8003,10 @@
         <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D420" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
@@ -8021,10 +8021,10 @@
         <v>199</v>
       </c>
       <c r="C421" t="n">
-        <v>0.0002849835167825218</v>
+        <v>0.0005699670335650435</v>
       </c>
       <c r="D421" t="n">
-        <v>0.003356203542006941</v>
+        <v>0.006142440050448839</v>
       </c>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr"/>
@@ -8039,10 +8039,10 @@
         <v>6</v>
       </c>
       <c r="C422" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D422" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr"/>
@@ -8057,10 +8057,10 @@
         <v>29</v>
       </c>
       <c r="C423" t="n">
-        <v>4.153026123966398e-05</v>
+        <v>8.306052247932796e-05</v>
       </c>
       <c r="D423" t="n">
-        <v>0.0006044927841891316</v>
+        <v>0.001125925045898935</v>
       </c>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr"/>
@@ -8075,10 +8075,10 @@
         <v>214</v>
       </c>
       <c r="C424" t="n">
-        <v>0.0003064646863892445</v>
+        <v>0.0006129293727784891</v>
       </c>
       <c r="D424" t="n">
-        <v>0.003577053225717052</v>
+        <v>0.006541177078655615</v>
       </c>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr"/>
@@ -8093,10 +8093,10 @@
         <v>164</v>
       </c>
       <c r="C425" t="n">
-        <v>0.0002348607877001687</v>
+        <v>0.0004697215754003374</v>
       </c>
       <c r="D425" t="n">
-        <v>0.002831459701281917</v>
+        <v>0.005193197827163497</v>
       </c>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr"/>
@@ -8111,10 +8111,10 @@
         <v>386</v>
       </c>
       <c r="C426" t="n">
-        <v>0.0005527820978796653</v>
+        <v>0.001105564195759331</v>
       </c>
       <c r="D426" t="n">
-        <v>0.005981655902289213</v>
+        <v>0.0108577476088191</v>
       </c>
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
@@ -8129,10 +8129,10 @@
         <v>65</v>
       </c>
       <c r="C427" t="n">
-        <v>9.308506829579858e-05</v>
+        <v>0.0001861701365915972</v>
       </c>
       <c r="D427" t="n">
-        <v>0.001246510593267229</v>
+        <v>0.002306851049942861</v>
       </c>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
@@ -8147,10 +8147,10 @@
         <v>24</v>
       </c>
       <c r="C428" t="n">
-        <v>3.43698713707564e-05</v>
+        <v>6.873974274151279e-05</v>
       </c>
       <c r="D428" t="n">
-        <v>0.0005096535008980054</v>
+        <v>0.0009505672590544978</v>
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
@@ -8165,10 +8165,10 @@
         <v>87</v>
       </c>
       <c r="C429" t="n">
-        <v>0.0001245907837189919</v>
+        <v>0.0002491815674379839</v>
       </c>
       <c r="D429" t="n">
-        <v>0.001616006632437332</v>
+        <v>0.002982831697436681</v>
       </c>
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr"/>
@@ -8183,10 +8183,10 @@
         <v>60</v>
       </c>
       <c r="C430" t="n">
-        <v>8.592467842689099e-05</v>
+        <v>0.000171849356853782</v>
       </c>
       <c r="D430" t="n">
-        <v>0.001160547505788344</v>
+        <v>0.002149245654722906</v>
       </c>
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr"/>
@@ -8201,10 +8201,10 @@
         <v>79</v>
       </c>
       <c r="C431" t="n">
-        <v>0.0001131341599287398</v>
+        <v>0.0002262683198574796</v>
       </c>
       <c r="D431" t="n">
-        <v>0.001483152381959817</v>
+        <v>0.002740036444062154</v>
       </c>
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr"/>
@@ -8219,10 +8219,10 @@
         <v>43</v>
       </c>
       <c r="C432" t="n">
-        <v>6.15793528726052e-05</v>
+        <v>0.0001231587057452104</v>
       </c>
       <c r="D432" t="n">
-        <v>0.0008613223407385155</v>
+        <v>0.001599485975731821</v>
       </c>
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr"/>
@@ -8237,10 +8237,10 @@
         <v>2</v>
       </c>
       <c r="C433" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D433" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr"/>
@@ -8255,10 +8255,10 @@
         <v>13</v>
       </c>
       <c r="C434" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D434" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr"/>
@@ -8273,10 +8273,10 @@
         <v>95</v>
       </c>
       <c r="C435" t="n">
-        <v>0.0001360474075092441</v>
+        <v>0.0002720948150184882</v>
       </c>
       <c r="D435" t="n">
-        <v>0.001747338879581325</v>
+        <v>0.003222582944144162</v>
       </c>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
@@ -8291,10 +8291,10 @@
         <v>80</v>
       </c>
       <c r="C436" t="n">
-        <v>0.0001145662379025213</v>
+        <v>0.0002291324758050426</v>
       </c>
       <c r="D436" t="n">
-        <v>0.001499847389503611</v>
+        <v>0.00277056230320218</v>
       </c>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
@@ -8309,10 +8309,10 @@
         <v>102</v>
       </c>
       <c r="C437" t="n">
-        <v>0.0001460719533257147</v>
+        <v>0.0002921439066514294</v>
       </c>
       <c r="D437" t="n">
-        <v>0.001861107604100239</v>
+        <v>0.003430071301549049</v>
       </c>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
@@ -8327,10 +8327,10 @@
         <v>157</v>
       </c>
       <c r="C438" t="n">
-        <v>0.0002248362418836981</v>
+        <v>0.0004496724837673962</v>
       </c>
       <c r="D438" t="n">
-        <v>0.002724753941066638</v>
+        <v>0.004999835398365879</v>
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
@@ -8345,10 +8345,10 @@
         <v>54</v>
       </c>
       <c r="C439" t="n">
-        <v>7.733221058420189e-05</v>
+        <v>0.0001546644211684038</v>
       </c>
       <c r="D439" t="n">
-        <v>0.001056247490441252</v>
+        <v>0.001957830559714101</v>
       </c>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
@@ -8363,10 +8363,10 @@
         <v>134</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0001918984484867232</v>
+        <v>0.0003837968969734464</v>
       </c>
       <c r="D440" t="n">
-        <v>0.002369441017754407</v>
+        <v>0.004355085138535367</v>
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
@@ -8381,10 +8381,10 @@
         <v>50</v>
       </c>
       <c r="C441" t="n">
-        <v>7.160389868907582e-05</v>
+        <v>0.0001432077973781516</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0009859572104373509</v>
+        <v>0.00182870662349655</v>
       </c>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
@@ -8399,10 +8399,10 @@
         <v>315</v>
       </c>
       <c r="C442" t="n">
-        <v>0.0004511045617411777</v>
+        <v>0.0009022091234823554</v>
       </c>
       <c r="D442" t="n">
-        <v>0.00501368910284041</v>
+        <v>0.009125169082198464</v>
       </c>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
@@ -8417,10 +8417,10 @@
         <v>107</v>
       </c>
       <c r="C443" t="n">
-        <v>0.0001532323431946223</v>
+        <v>0.0003064646863892445</v>
       </c>
       <c r="D443" t="n">
-        <v>0.001941758956053148</v>
+        <v>0.003577053225717052</v>
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -8435,10 +8435,10 @@
         <v>170</v>
       </c>
       <c r="C444" t="n">
-        <v>0.0002434532555428578</v>
+        <v>0.0004869065110857156</v>
       </c>
       <c r="D444" t="n">
-        <v>0.002922429333710893</v>
+        <v>0.005357952156336069</v>
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
@@ -8453,10 +8453,10 @@
         <v>79</v>
       </c>
       <c r="C445" t="n">
-        <v>0.0001131341599287398</v>
+        <v>0.0002262683198574796</v>
       </c>
       <c r="D445" t="n">
-        <v>0.001483152381959817</v>
+        <v>0.002740036444062154</v>
       </c>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
@@ -8471,10 +8471,10 @@
         <v>68</v>
       </c>
       <c r="C446" t="n">
-        <v>9.738130221714312e-05</v>
+        <v>0.0001947626044342862</v>
       </c>
       <c r="D446" t="n">
-        <v>0.001297702812801916</v>
+        <v>0.002400643021169545</v>
       </c>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
@@ -8489,10 +8489,10 @@
         <v>56</v>
       </c>
       <c r="C447" t="n">
-        <v>8.019636653176492e-05</v>
+        <v>0.0001603927330635298</v>
       </c>
       <c r="D447" t="n">
-        <v>0.001091160071428196</v>
+        <v>0.002021927409792863</v>
       </c>
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr"/>
@@ -8507,10 +8507,10 @@
         <v>85</v>
       </c>
       <c r="C448" t="n">
-        <v>0.0001217266277714289</v>
+        <v>0.0002434532555428578</v>
       </c>
       <c r="D448" t="n">
-        <v>0.001582941294626875</v>
+        <v>0.002922429333710893</v>
       </c>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
@@ -8525,10 +8525,10 @@
         <v>92</v>
       </c>
       <c r="C449" t="n">
-        <v>0.0001317511735878995</v>
+        <v>0.0002635023471757991</v>
       </c>
       <c r="D449" t="n">
-        <v>0.001698259000084992</v>
+        <v>0.003133015652994185</v>
       </c>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
@@ -8543,10 +8543,10 @@
         <v>73</v>
       </c>
       <c r="C450" t="n">
-        <v>0.0001045416920860507</v>
+        <v>0.0002090833841721014</v>
       </c>
       <c r="D450" t="n">
-        <v>0.001382421070106804</v>
+        <v>0.002555758756041505</v>
       </c>
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
@@ -8561,10 +8561,10 @@
         <v>10</v>
       </c>
       <c r="C451" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D451" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr"/>
@@ -8579,10 +8579,10 @@
         <v>32</v>
       </c>
       <c r="C452" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D452" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr"/>
@@ -8597,10 +8597,10 @@
         <v>75</v>
       </c>
       <c r="C453" t="n">
-        <v>0.0001074058480336137</v>
+        <v>0.0002148116960672275</v>
       </c>
       <c r="D453" t="n">
-        <v>0.001416107422198207</v>
+        <v>0.002617403148329187</v>
       </c>
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="inlineStr"/>
@@ -8615,10 +8615,10 @@
         <v>28</v>
       </c>
       <c r="C454" t="n">
-        <v>4.009818326588246e-05</v>
+        <v>8.019636653176492e-05</v>
       </c>
       <c r="D454" t="n">
-        <v>0.0005856782189799806</v>
+        <v>0.001091160071428196</v>
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
@@ -8633,10 +8633,10 @@
         <v>84</v>
       </c>
       <c r="C455" t="n">
-        <v>0.0001202945497976474</v>
+        <v>0.0002405890995952948</v>
       </c>
       <c r="D455" t="n">
-        <v>0.001566372306469537</v>
+        <v>0.002892155513343779</v>
       </c>
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr"/>
@@ -8651,10 +8651,10 @@
         <v>139</v>
       </c>
       <c r="C456" t="n">
-        <v>0.0001990588383556308</v>
+        <v>0.0003981176767112616</v>
       </c>
       <c r="D456" t="n">
-        <v>0.0024473323617401</v>
+        <v>0.004496547046768938</v>
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
@@ -8669,10 +8669,10 @@
         <v>73</v>
       </c>
       <c r="C457" t="n">
-        <v>0.0001045416920860507</v>
+        <v>0.0002090833841721014</v>
       </c>
       <c r="D457" t="n">
-        <v>0.001382421070106804</v>
+        <v>0.002555758756041505</v>
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         <v>3</v>
       </c>
       <c r="C458" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D458" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
@@ -8705,10 +8705,10 @@
         <v>137</v>
       </c>
       <c r="C459" t="n">
-        <v>0.0001961946824080678</v>
+        <v>0.0003923893648161355</v>
       </c>
       <c r="D459" t="n">
-        <v>0.002416221179069285</v>
+        <v>0.004440052993322434</v>
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
@@ -8723,10 +8723,10 @@
         <v>21</v>
       </c>
       <c r="C460" t="n">
-        <v>3.007363744941185e-05</v>
+        <v>6.014727489882369e-05</v>
       </c>
       <c r="D460" t="n">
-        <v>0.000451740351516208</v>
+        <v>0.0008433334281335923</v>
       </c>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
@@ -8741,10 +8741,10 @@
         <v>36</v>
       </c>
       <c r="C461" t="n">
-        <v>5.155480705613459e-05</v>
+        <v>0.0001031096141122692</v>
       </c>
       <c r="D461" t="n">
-        <v>0.0007343226224872547</v>
+        <v>0.00136553563086224</v>
       </c>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
@@ -8759,10 +8759,10 @@
         <v>48</v>
       </c>
       <c r="C462" t="n">
-        <v>6.873974274151279e-05</v>
+        <v>0.0001374794854830256</v>
       </c>
       <c r="D462" t="n">
-        <v>0.0009505672590544978</v>
+        <v>0.00176365503262597</v>
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
@@ -8777,10 +8777,10 @@
         <v>40</v>
       </c>
       <c r="C463" t="n">
-        <v>5.728311895126066e-05</v>
+        <v>0.0001145662379025213</v>
       </c>
       <c r="D463" t="n">
-        <v>0.0008072068137030663</v>
+        <v>0.001499847389503611</v>
       </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
@@ -8795,10 +8795,10 @@
         <v>36</v>
       </c>
       <c r="C464" t="n">
-        <v>5.155480705613459e-05</v>
+        <v>0.0001031096141122692</v>
       </c>
       <c r="D464" t="n">
-        <v>0.0007343226224872547</v>
+        <v>0.00136553563086224</v>
       </c>
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
@@ -8813,10 +8813,10 @@
         <v>106</v>
       </c>
       <c r="C465" t="n">
-        <v>0.0001518002652208407</v>
+        <v>0.0003036005304416815</v>
       </c>
       <c r="D465" t="n">
-        <v>0.001925668043215858</v>
+        <v>0.003547735555990034</v>
       </c>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
@@ -8831,10 +8831,10 @@
         <v>2</v>
       </c>
       <c r="C466" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D466" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
@@ -8849,10 +8849,10 @@
         <v>66</v>
       </c>
       <c r="C467" t="n">
-        <v>9.451714626958008e-05</v>
+        <v>0.0001890342925391602</v>
       </c>
       <c r="D467" t="n">
-        <v>0.001263605815700323</v>
+        <v>0.002338177338861486</v>
       </c>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
@@ -8867,10 +8867,10 @@
         <v>63</v>
       </c>
       <c r="C468" t="n">
-        <v>9.022091234823553e-05</v>
+        <v>0.0001804418246964711</v>
       </c>
       <c r="D468" t="n">
-        <v>0.00121222429169582</v>
+        <v>0.002244006758695169</v>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
@@ -8885,10 +8885,10 @@
         <v>12</v>
       </c>
       <c r="C469" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D469" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
@@ -8903,10 +8903,10 @@
         <v>42</v>
       </c>
       <c r="C470" t="n">
-        <v>6.014727489882369e-05</v>
+        <v>0.0001202945497976474</v>
       </c>
       <c r="D470" t="n">
-        <v>0.0008433334281335923</v>
+        <v>0.001566372306469537</v>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
@@ -8921,10 +8921,10 @@
         <v>99</v>
       </c>
       <c r="C471" t="n">
-        <v>0.0001417757194043701</v>
+        <v>0.0002835514388087403</v>
       </c>
       <c r="D471" t="n">
-        <v>0.001812475244186163</v>
+        <v>0.003341399049563586</v>
       </c>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
@@ -8939,10 +8939,10 @@
         <v>79</v>
       </c>
       <c r="C472" t="n">
-        <v>0.0001131341599287398</v>
+        <v>0.0002262683198574796</v>
       </c>
       <c r="D472" t="n">
-        <v>0.001483152381959817</v>
+        <v>0.002740036444062154</v>
       </c>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
@@ -8957,10 +8957,10 @@
         <v>19</v>
       </c>
       <c r="C473" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D473" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
@@ -8975,10 +8975,10 @@
         <v>16</v>
       </c>
       <c r="C474" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D474" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
@@ -8993,10 +8993,10 @@
         <v>52</v>
       </c>
       <c r="C475" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D475" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
@@ -9011,10 +9011,10 @@
         <v>122</v>
       </c>
       <c r="C476" t="n">
-        <v>0.000174713512801345</v>
+        <v>0.00034942702560269</v>
       </c>
       <c r="D476" t="n">
-        <v>0.00218090006757924</v>
+        <v>0.004012373109555789</v>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
@@ -9029,10 +9029,10 @@
         <v>81</v>
       </c>
       <c r="C477" t="n">
-        <v>0.0001159983158763028</v>
+        <v>0.0002319966317526057</v>
       </c>
       <c r="D477" t="n">
-        <v>0.001516516570727434</v>
+        <v>0.002801036509702262</v>
       </c>
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr"/>
@@ -9047,10 +9047,10 @@
         <v>30</v>
       </c>
       <c r="C478" t="n">
-        <v>4.296233921344549e-05</v>
+        <v>8.592467842689099e-05</v>
       </c>
       <c r="D478" t="n">
-        <v>0.0006232360921076175</v>
+        <v>0.001160547505788344</v>
       </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
@@ -9065,10 +9065,10 @@
         <v>90</v>
       </c>
       <c r="C479" t="n">
-        <v>0.0001288870176403365</v>
+        <v>0.000257774035280673</v>
       </c>
       <c r="D479" t="n">
-        <v>0.001665427186533133</v>
+        <v>0.003073080337785594</v>
       </c>
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
@@ -9083,10 +9083,10 @@
         <v>57</v>
       </c>
       <c r="C480" t="n">
-        <v>8.162844450554644e-05</v>
+        <v>0.0001632568890110929</v>
       </c>
       <c r="D480" t="n">
-        <v>0.001108560682854688</v>
+        <v>0.002053864476698284</v>
       </c>
       <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr"/>
@@ -9101,10 +9101,10 @@
         <v>6</v>
       </c>
       <c r="C481" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D481" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
@@ -9119,10 +9119,10 @@
         <v>42</v>
       </c>
       <c r="C482" t="n">
-        <v>6.014727489882369e-05</v>
+        <v>0.0001202945497976474</v>
       </c>
       <c r="D482" t="n">
-        <v>0.0008433334281335923</v>
+        <v>0.001566372306469537</v>
       </c>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
@@ -9137,10 +9137,10 @@
         <v>63</v>
       </c>
       <c r="C483" t="n">
-        <v>9.022091234823553e-05</v>
+        <v>0.0001804418246964711</v>
       </c>
       <c r="D483" t="n">
-        <v>0.00121222429169582</v>
+        <v>0.002244006758695169</v>
       </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
@@ -9155,10 +9155,10 @@
         <v>4</v>
       </c>
       <c r="C484" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D484" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
@@ -9173,10 +9173,10 @@
         <v>40</v>
       </c>
       <c r="C485" t="n">
-        <v>5.728311895126066e-05</v>
+        <v>0.0001145662379025213</v>
       </c>
       <c r="D485" t="n">
-        <v>0.0008072068137030663</v>
+        <v>0.001499847389503611</v>
       </c>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
@@ -9191,10 +9191,10 @@
         <v>10</v>
       </c>
       <c r="C486" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D486" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
@@ -9209,10 +9209,10 @@
         <v>52</v>
       </c>
       <c r="C487" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D487" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
@@ -9227,10 +9227,10 @@
         <v>15</v>
       </c>
       <c r="C488" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D488" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
@@ -9245,10 +9245,10 @@
         <v>36</v>
       </c>
       <c r="C489" t="n">
-        <v>5.155480705613459e-05</v>
+        <v>0.0001031096141122692</v>
       </c>
       <c r="D489" t="n">
-        <v>0.0007343226224872547</v>
+        <v>0.00136553563086224</v>
       </c>
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
@@ -9263,10 +9263,10 @@
         <v>132</v>
       </c>
       <c r="C490" t="n">
-        <v>0.0001890342925391602</v>
+        <v>0.0003780685850783203</v>
       </c>
       <c r="D490" t="n">
-        <v>0.002338177338861486</v>
+        <v>0.004298286092644652</v>
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr"/>
@@ -9281,10 +9281,10 @@
         <v>73</v>
       </c>
       <c r="C491" t="n">
-        <v>0.0001045416920860507</v>
+        <v>0.0002090833841721014</v>
       </c>
       <c r="D491" t="n">
-        <v>0.001382421070106804</v>
+        <v>0.002555758756041505</v>
       </c>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
@@ -9299,10 +9299,10 @@
         <v>3</v>
       </c>
       <c r="C492" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D492" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
@@ -9317,10 +9317,10 @@
         <v>52</v>
       </c>
       <c r="C493" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D493" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
@@ -9335,10 +9335,10 @@
         <v>13</v>
       </c>
       <c r="C494" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D494" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
@@ -9353,10 +9353,10 @@
         <v>111</v>
       </c>
       <c r="C495" t="n">
-        <v>0.0001589606550897483</v>
+        <v>0.0003179213101794967</v>
       </c>
       <c r="D495" t="n">
-        <v>0.002005931287262648</v>
+        <v>0.003693941264345798</v>
       </c>
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
@@ -9371,10 +9371,10 @@
         <v>175</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0002506136454117654</v>
+        <v>0.0005012272908235308</v>
       </c>
       <c r="D496" t="n">
-        <v>0.002997902430960975</v>
+        <v>0.005494577571098419</v>
       </c>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
@@ -9389,10 +9389,10 @@
         <v>64</v>
       </c>
       <c r="C497" t="n">
-        <v>9.165299032201706e-05</v>
+        <v>0.0001833059806440341</v>
       </c>
       <c r="D497" t="n">
-        <v>0.001229383584167986</v>
+        <v>0.002275461187691937</v>
       </c>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
@@ -9407,10 +9407,10 @@
         <v>49</v>
       </c>
       <c r="C498" t="n">
-        <v>7.017182071529431e-05</v>
+        <v>0.0001403436414305886</v>
       </c>
       <c r="D498" t="n">
-        <v>0.0009682833183707295</v>
+        <v>0.00179622299531087</v>
       </c>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
@@ -9425,10 +9425,10 @@
         <v>28</v>
       </c>
       <c r="C499" t="n">
-        <v>4.009818326588246e-05</v>
+        <v>8.019636653176492e-05</v>
       </c>
       <c r="D499" t="n">
-        <v>0.0005856782189799806</v>
+        <v>0.001091160071428196</v>
       </c>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
@@ -9443,10 +9443,10 @@
         <v>6</v>
       </c>
       <c r="C500" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D500" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
@@ -9461,10 +9461,10 @@
         <v>16</v>
       </c>
       <c r="C501" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D501" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
@@ -9479,10 +9479,10 @@
         <v>305</v>
       </c>
       <c r="C502" t="n">
-        <v>0.0004367837820033625</v>
+        <v>0.000873567564006725</v>
       </c>
       <c r="D502" t="n">
-        <v>0.004874853416126698</v>
+        <v>0.00887613926824667</v>
       </c>
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
@@ -9497,10 +9497,10 @@
         <v>110</v>
       </c>
       <c r="C503" t="n">
-        <v>0.0001575285771159668</v>
+        <v>0.0003150571542319336</v>
       </c>
       <c r="D503" t="n">
-        <v>0.001989916551401447</v>
+        <v>0.003664775948570959</v>
       </c>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
@@ -9515,10 +9515,10 @@
         <v>2</v>
       </c>
       <c r="C504" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D504" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
@@ -9533,10 +9533,10 @@
         <v>50</v>
       </c>
       <c r="C505" t="n">
-        <v>7.160389868907582e-05</v>
+        <v>0.0001432077973781516</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0009859572104373509</v>
+        <v>0.00182870662349655</v>
       </c>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
@@ -9551,10 +9551,10 @@
         <v>25</v>
       </c>
       <c r="C506" t="n">
-        <v>3.580194934453791e-05</v>
+        <v>7.160389868907582e-05</v>
       </c>
       <c r="D506" t="n">
-        <v>0.0005287805545632133</v>
+        <v>0.0009859572104373509</v>
       </c>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
@@ -9569,10 +9569,10 @@
         <v>3</v>
       </c>
       <c r="C507" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D507" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr"/>
@@ -9587,10 +9587,10 @@
         <v>66</v>
       </c>
       <c r="C508" t="n">
-        <v>9.451714626958008e-05</v>
+        <v>0.0001890342925391602</v>
       </c>
       <c r="D508" t="n">
-        <v>0.001263605815700323</v>
+        <v>0.002338177338861486</v>
       </c>
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr"/>
@@ -9605,10 +9605,10 @@
         <v>21</v>
       </c>
       <c r="C509" t="n">
-        <v>3.007363744941185e-05</v>
+        <v>6.014727489882369e-05</v>
       </c>
       <c r="D509" t="n">
-        <v>0.000451740351516208</v>
+        <v>0.0008433334281335923</v>
       </c>
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
@@ -9623,10 +9623,10 @@
         <v>10</v>
       </c>
       <c r="C510" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D510" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
@@ -9641,10 +9641,10 @@
         <v>15</v>
       </c>
       <c r="C511" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D511" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
@@ -9659,10 +9659,10 @@
         <v>52</v>
       </c>
       <c r="C512" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D512" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
@@ -9677,10 +9677,10 @@
         <v>72</v>
       </c>
       <c r="C513" t="n">
-        <v>0.0001031096141122692</v>
+        <v>0.0002062192282245384</v>
       </c>
       <c r="D513" t="n">
-        <v>0.00136553563086224</v>
+        <v>0.002524852033499942</v>
       </c>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
@@ -9695,10 +9695,10 @@
         <v>23</v>
       </c>
       <c r="C514" t="n">
-        <v>3.293779339697488e-05</v>
+        <v>6.587558679394976e-05</v>
       </c>
       <c r="D514" t="n">
-        <v>0.0004904403368151977</v>
+        <v>0.0009150050868364457</v>
       </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
@@ -9713,10 +9713,10 @@
         <v>32</v>
       </c>
       <c r="C515" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D515" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
@@ -9731,10 +9731,10 @@
         <v>64</v>
       </c>
       <c r="C516" t="n">
-        <v>9.165299032201706e-05</v>
+        <v>0.0001833059806440341</v>
       </c>
       <c r="D516" t="n">
-        <v>0.001229383584167986</v>
+        <v>0.002275461187691937</v>
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
@@ -9749,10 +9749,10 @@
         <v>13</v>
       </c>
       <c r="C517" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D517" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
@@ -9767,10 +9767,10 @@
         <v>77</v>
       </c>
       <c r="C518" t="n">
-        <v>0.0001102700039811768</v>
+        <v>0.0002205400079623535</v>
       </c>
       <c r="D518" t="n">
-        <v>0.001449683571797557</v>
+        <v>0.00267882713563276</v>
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
@@ -9785,10 +9785,10 @@
         <v>5</v>
       </c>
       <c r="C519" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D519" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
@@ -9803,10 +9803,10 @@
         <v>29</v>
       </c>
       <c r="C520" t="n">
-        <v>4.153026123966398e-05</v>
+        <v>8.306052247932796e-05</v>
       </c>
       <c r="D520" t="n">
-        <v>0.0006044927841891316</v>
+        <v>0.001125925045898935</v>
       </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
@@ -9821,10 +9821,10 @@
         <v>11</v>
       </c>
       <c r="C521" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D521" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
@@ -9839,10 +9839,10 @@
         <v>217</v>
       </c>
       <c r="C522" t="n">
-        <v>0.0003107609203105891</v>
+        <v>0.0006215218406211781</v>
       </c>
       <c r="D522" t="n">
-        <v>0.003620957432900878</v>
+        <v>0.006620393025180578</v>
       </c>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
@@ -9857,10 +9857,10 @@
         <v>68</v>
       </c>
       <c r="C523" t="n">
-        <v>9.738130221714312e-05</v>
+        <v>0.0001947626044342862</v>
       </c>
       <c r="D523" t="n">
-        <v>0.001297702812801916</v>
+        <v>0.002400643021169545</v>
       </c>
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
@@ -9875,10 +9875,10 @@
         <v>32</v>
       </c>
       <c r="C524" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D524" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
@@ -9893,10 +9893,10 @@
         <v>8</v>
       </c>
       <c r="C525" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D525" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr"/>
@@ -9911,10 +9911,10 @@
         <v>15</v>
       </c>
       <c r="C526" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D526" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
@@ -9929,10 +9929,10 @@
         <v>26</v>
       </c>
       <c r="C527" t="n">
-        <v>3.723402731831943e-05</v>
+        <v>7.446805463663886e-05</v>
       </c>
       <c r="D527" t="n">
-        <v>0.0005478249441047817</v>
+        <v>0.001021181833572925</v>
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr"/>
@@ -9947,10 +9947,10 @@
         <v>13</v>
       </c>
       <c r="C528" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D528" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr"/>
@@ -9965,10 +9965,10 @@
         <v>15</v>
       </c>
       <c r="C529" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D529" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
@@ -9983,10 +9983,10 @@
         <v>16</v>
       </c>
       <c r="C530" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D530" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
@@ -10001,10 +10001,10 @@
         <v>68</v>
       </c>
       <c r="C531" t="n">
-        <v>9.738130221714312e-05</v>
+        <v>0.0001947626044342862</v>
       </c>
       <c r="D531" t="n">
-        <v>0.001297702812801916</v>
+        <v>0.002400643021169545</v>
       </c>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
@@ -10019,10 +10019,10 @@
         <v>32</v>
       </c>
       <c r="C532" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D532" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
@@ -10037,10 +10037,10 @@
         <v>39</v>
       </c>
       <c r="C533" t="n">
-        <v>5.585104097747914e-05</v>
+        <v>0.0001117020819549583</v>
       </c>
       <c r="D533" t="n">
-        <v>0.0007890666515591065</v>
+        <v>0.001466431221163255</v>
       </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
@@ -10055,10 +10055,10 @@
         <v>44</v>
       </c>
       <c r="C534" t="n">
-        <v>6.301143084638672e-05</v>
+        <v>0.0001260228616927734</v>
       </c>
       <c r="D534" t="n">
-        <v>0.0008792632012954694</v>
+        <v>0.001632503540898165</v>
       </c>
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
@@ -10073,10 +10073,10 @@
         <v>3</v>
       </c>
       <c r="C535" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D535" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
@@ -10091,10 +10091,10 @@
         <v>21</v>
       </c>
       <c r="C536" t="n">
-        <v>3.007363744941185e-05</v>
+        <v>6.014727489882369e-05</v>
       </c>
       <c r="D536" t="n">
-        <v>0.000451740351516208</v>
+        <v>0.0008433334281335923</v>
       </c>
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
@@ -10109,10 +10109,10 @@
         <v>11</v>
       </c>
       <c r="C537" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D537" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
@@ -10127,10 +10127,10 @@
         <v>13</v>
       </c>
       <c r="C538" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D538" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
@@ -10145,10 +10145,10 @@
         <v>53</v>
       </c>
       <c r="C539" t="n">
-        <v>7.590013261042037e-05</v>
+        <v>0.0001518002652208407</v>
       </c>
       <c r="D539" t="n">
-        <v>0.001038734154218349</v>
+        <v>0.001925668043215858</v>
       </c>
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
@@ -10163,10 +10163,10 @@
         <v>3</v>
       </c>
       <c r="C540" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D540" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
@@ -10181,10 +10181,10 @@
         <v>2</v>
       </c>
       <c r="C541" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D541" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
@@ -10199,10 +10199,10 @@
         <v>37</v>
       </c>
       <c r="C542" t="n">
-        <v>5.298688502991611e-05</v>
+        <v>0.0001059737700598322</v>
       </c>
       <c r="D542" t="n">
-        <v>0.0007526259882233228</v>
+        <v>0.001399278206386813</v>
       </c>
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
@@ -10217,10 +10217,10 @@
         <v>4</v>
       </c>
       <c r="C543" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D543" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
@@ -10235,10 +10235,10 @@
         <v>8</v>
       </c>
       <c r="C544" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D544" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
@@ -10253,10 +10253,10 @@
         <v>84</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0001202945497976474</v>
+        <v>0.0002405890995952948</v>
       </c>
       <c r="D545" t="n">
-        <v>0.001566372306469537</v>
+        <v>0.002892155513343779</v>
       </c>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
@@ -10271,10 +10271,10 @@
         <v>3</v>
       </c>
       <c r="C546" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D546" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
@@ -10289,10 +10289,10 @@
         <v>24</v>
       </c>
       <c r="C547" t="n">
-        <v>3.43698713707564e-05</v>
+        <v>6.873974274151279e-05</v>
       </c>
       <c r="D547" t="n">
-        <v>0.0005096535008980054</v>
+        <v>0.0009505672590544978</v>
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
@@ -10307,10 +10307,10 @@
         <v>27</v>
       </c>
       <c r="C548" t="n">
-        <v>3.866610529210094e-05</v>
+        <v>7.733221058420189e-05</v>
       </c>
       <c r="D548" t="n">
-        <v>0.0005667898505127271</v>
+        <v>0.001056247490441252</v>
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
@@ -10325,10 +10325,10 @@
         <v>20</v>
       </c>
       <c r="C549" t="n">
-        <v>2.864155947563033e-05</v>
+        <v>5.728311895126066e-05</v>
       </c>
       <c r="D549" t="n">
-        <v>0.0004322449663271634</v>
+        <v>0.0008072068137030663</v>
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
@@ -10343,10 +10343,10 @@
         <v>21</v>
       </c>
       <c r="C550" t="n">
-        <v>3.007363744941185e-05</v>
+        <v>6.014727489882369e-05</v>
       </c>
       <c r="D550" t="n">
-        <v>0.000451740351516208</v>
+        <v>0.0008433334281335923</v>
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
@@ -10361,10 +10361,10 @@
         <v>44</v>
       </c>
       <c r="C551" t="n">
-        <v>6.301143084638672e-05</v>
+        <v>0.0001260228616927734</v>
       </c>
       <c r="D551" t="n">
-        <v>0.0008792632012954694</v>
+        <v>0.001632503540898165</v>
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
@@ -10379,10 +10379,10 @@
         <v>13</v>
       </c>
       <c r="C552" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D552" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
@@ -10397,10 +10397,10 @@
         <v>15</v>
       </c>
       <c r="C553" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D553" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
@@ -10415,10 +10415,10 @@
         <v>3</v>
       </c>
       <c r="C554" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D554" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
@@ -10433,10 +10433,10 @@
         <v>51</v>
       </c>
       <c r="C555" t="n">
-        <v>7.303597666285734e-05</v>
+        <v>0.0001460719533257147</v>
       </c>
       <c r="D555" t="n">
-        <v>0.001003589778712977</v>
+        <v>0.001861107604100239</v>
       </c>
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
@@ -10451,10 +10451,10 @@
         <v>16</v>
       </c>
       <c r="C556" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D556" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
@@ -10469,10 +10469,10 @@
         <v>12</v>
       </c>
       <c r="C557" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D557" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
@@ -10487,10 +10487,10 @@
         <v>10</v>
       </c>
       <c r="C558" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D558" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
@@ -10505,10 +10505,10 @@
         <v>4</v>
       </c>
       <c r="C559" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D559" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="C560" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D560" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
@@ -10541,10 +10541,10 @@
         <v>4</v>
       </c>
       <c r="C561" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D561" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
@@ -10559,10 +10559,10 @@
         <v>19</v>
       </c>
       <c r="C562" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D562" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
@@ -10577,10 +10577,10 @@
         <v>6</v>
       </c>
       <c r="C563" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D563" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
@@ -10595,10 +10595,10 @@
         <v>52</v>
       </c>
       <c r="C564" t="n">
-        <v>7.446805463663886e-05</v>
+        <v>0.0001489361092732777</v>
       </c>
       <c r="D564" t="n">
-        <v>0.001021181833572925</v>
+        <v>0.001893427557872571</v>
       </c>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
@@ -10613,10 +10613,10 @@
         <v>8</v>
       </c>
       <c r="C565" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D565" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr"/>
@@ -10631,10 +10631,10 @@
         <v>31</v>
       </c>
       <c r="C566" t="n">
-        <v>4.439441718722701e-05</v>
+        <v>8.878883437445401e-05</v>
       </c>
       <c r="D566" t="n">
-        <v>0.0006419105188739944</v>
+        <v>0.001195032203373535</v>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr"/>
@@ -10649,10 +10649,10 @@
         <v>15</v>
       </c>
       <c r="C567" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D567" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr"/>
@@ -10667,10 +10667,10 @@
         <v>4</v>
       </c>
       <c r="C568" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D568" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
@@ -10685,10 +10685,10 @@
         <v>51</v>
       </c>
       <c r="C569" t="n">
-        <v>7.303597666285734e-05</v>
+        <v>0.0001460719533257147</v>
       </c>
       <c r="D569" t="n">
-        <v>0.001003589778712977</v>
+        <v>0.001861107604100239</v>
       </c>
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
@@ -10703,10 +10703,10 @@
         <v>9</v>
       </c>
       <c r="C570" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D570" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr"/>
@@ -10721,10 +10721,10 @@
         <v>18</v>
       </c>
       <c r="C571" t="n">
-        <v>2.57774035280673e-05</v>
+        <v>5.155480705613459e-05</v>
       </c>
       <c r="D571" t="n">
-        <v>0.0003929387147716946</v>
+        <v>0.0007343226224872547</v>
       </c>
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
@@ -10739,10 +10739,10 @@
         <v>37</v>
       </c>
       <c r="C572" t="n">
-        <v>5.298688502991611e-05</v>
+        <v>0.0001059737700598322</v>
       </c>
       <c r="D572" t="n">
-        <v>0.0007526259882233228</v>
+        <v>0.001399278206386813</v>
       </c>
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
@@ -10757,10 +10757,10 @@
         <v>10</v>
       </c>
       <c r="C573" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D573" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
@@ -10775,10 +10775,10 @@
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D574" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
@@ -10793,10 +10793,10 @@
         <v>16</v>
       </c>
       <c r="C575" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D575" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
@@ -10811,10 +10811,10 @@
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D576" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
@@ -10829,10 +10829,10 @@
         <v>40</v>
       </c>
       <c r="C577" t="n">
-        <v>5.728311895126066e-05</v>
+        <v>0.0001145662379025213</v>
       </c>
       <c r="D577" t="n">
-        <v>0.0008072068137030663</v>
+        <v>0.001499847389503611</v>
       </c>
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="C578" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D578" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
@@ -10865,10 +10865,10 @@
         <v>54</v>
       </c>
       <c r="C579" t="n">
-        <v>7.733221058420189e-05</v>
+        <v>0.0001546644211684038</v>
       </c>
       <c r="D579" t="n">
-        <v>0.001056247490441252</v>
+        <v>0.001957830559714101</v>
       </c>
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
@@ -10883,10 +10883,10 @@
         <v>13</v>
       </c>
       <c r="C580" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D580" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
@@ -10901,10 +10901,10 @@
         <v>9</v>
       </c>
       <c r="C581" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D581" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
@@ -10919,10 +10919,10 @@
         <v>21</v>
       </c>
       <c r="C582" t="n">
-        <v>3.007363744941185e-05</v>
+        <v>6.014727489882369e-05</v>
       </c>
       <c r="D582" t="n">
-        <v>0.000451740351516208</v>
+        <v>0.0008433334281335923</v>
       </c>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
@@ -10937,10 +10937,10 @@
         <v>3</v>
       </c>
       <c r="C583" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D583" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
@@ -10955,10 +10955,10 @@
         <v>2</v>
       </c>
       <c r="C584" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D584" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr"/>
@@ -10973,10 +10973,10 @@
         <v>11</v>
       </c>
       <c r="C585" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D585" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
@@ -10991,10 +10991,10 @@
         <v>22</v>
       </c>
       <c r="C586" t="n">
-        <v>3.150571542319336e-05</v>
+        <v>6.301143084638672e-05</v>
       </c>
       <c r="D586" t="n">
-        <v>0.0004711373160709281</v>
+        <v>0.0008792632012954694</v>
       </c>
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
@@ -11009,10 +11009,10 @@
         <v>16</v>
       </c>
       <c r="C587" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D587" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr"/>
@@ -11027,10 +11027,10 @@
         <v>2</v>
       </c>
       <c r="C588" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D588" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr"/>
@@ -11045,10 +11045,10 @@
         <v>31</v>
       </c>
       <c r="C589" t="n">
-        <v>4.439441718722701e-05</v>
+        <v>8.878883437445401e-05</v>
       </c>
       <c r="D589" t="n">
-        <v>0.0006419105188739944</v>
+        <v>0.001195032203373535</v>
       </c>
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
@@ -11063,10 +11063,10 @@
         <v>13</v>
       </c>
       <c r="C590" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D590" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr"/>
@@ -11081,10 +11081,10 @@
         <v>12</v>
       </c>
       <c r="C591" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D591" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="inlineStr"/>
@@ -11099,10 +11099,10 @@
         <v>19</v>
       </c>
       <c r="C592" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D592" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E592" t="inlineStr"/>
       <c r="F592" t="inlineStr"/>
@@ -11117,10 +11117,10 @@
         <v>48</v>
       </c>
       <c r="C593" t="n">
-        <v>6.873974274151279e-05</v>
+        <v>0.0001374794854830256</v>
       </c>
       <c r="D593" t="n">
-        <v>0.0009505672590544978</v>
+        <v>0.00176365503262597</v>
       </c>
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr"/>
@@ -11135,10 +11135,10 @@
         <v>32</v>
       </c>
       <c r="C594" t="n">
-        <v>4.582649516100853e-05</v>
+        <v>9.165299032201706e-05</v>
       </c>
       <c r="D594" t="n">
-        <v>0.0006605182872450014</v>
+        <v>0.001229383584167986</v>
       </c>
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
@@ -11153,10 +11153,10 @@
         <v>28</v>
       </c>
       <c r="C595" t="n">
-        <v>4.009818326588246e-05</v>
+        <v>8.019636653176492e-05</v>
       </c>
       <c r="D595" t="n">
-        <v>0.0005856782189799806</v>
+        <v>0.001091160071428196</v>
       </c>
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
@@ -11171,10 +11171,10 @@
         <v>16</v>
       </c>
       <c r="C596" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D596" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
@@ -11189,10 +11189,10 @@
         <v>4</v>
       </c>
       <c r="C597" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D597" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
@@ -11207,10 +11207,10 @@
         <v>7</v>
       </c>
       <c r="C598" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D598" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr"/>
@@ -11225,10 +11225,10 @@
         <v>28</v>
       </c>
       <c r="C599" t="n">
-        <v>4.009818326588246e-05</v>
+        <v>8.019636653176492e-05</v>
       </c>
       <c r="D599" t="n">
-        <v>0.0005856782189799806</v>
+        <v>0.001091160071428196</v>
       </c>
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr"/>
@@ -11243,10 +11243,10 @@
         <v>4</v>
       </c>
       <c r="C600" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D600" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
@@ -11261,10 +11261,10 @@
         <v>16</v>
       </c>
       <c r="C601" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D601" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
@@ -11279,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D602" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
@@ -11297,10 +11297,10 @@
         <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D603" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
@@ -11315,10 +11315,10 @@
         <v>19</v>
       </c>
       <c r="C604" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D604" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
@@ -11333,10 +11333,10 @@
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D605" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
@@ -11351,10 +11351,10 @@
         <v>2</v>
       </c>
       <c r="C606" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D606" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
@@ -11369,10 +11369,10 @@
         <v>27</v>
       </c>
       <c r="C607" t="n">
-        <v>3.866610529210094e-05</v>
+        <v>7.733221058420189e-05</v>
       </c>
       <c r="D607" t="n">
-        <v>0.0005667898505127271</v>
+        <v>0.001056247490441252</v>
       </c>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
@@ -11387,10 +11387,10 @@
         <v>18</v>
       </c>
       <c r="C608" t="n">
-        <v>2.57774035280673e-05</v>
+        <v>5.155480705613459e-05</v>
       </c>
       <c r="D608" t="n">
-        <v>0.0003929387147716946</v>
+        <v>0.0007343226224872547</v>
       </c>
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
@@ -11405,10 +11405,10 @@
         <v>3</v>
       </c>
       <c r="C609" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D609" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
@@ -11423,10 +11423,10 @@
         <v>11</v>
       </c>
       <c r="C610" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D610" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
@@ -11441,10 +11441,10 @@
         <v>6</v>
       </c>
       <c r="C611" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D611" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
@@ -11459,10 +11459,10 @@
         <v>6</v>
       </c>
       <c r="C612" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D612" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
@@ -11477,10 +11477,10 @@
         <v>16</v>
       </c>
       <c r="C613" t="n">
-        <v>2.291324758050426e-05</v>
+        <v>4.582649516100853e-05</v>
       </c>
       <c r="D613" t="n">
-        <v>0.000353172391203005</v>
+        <v>0.0006605182872450014</v>
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
@@ -11495,10 +11495,10 @@
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D614" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
@@ -11513,10 +11513,10 @@
         <v>11</v>
       </c>
       <c r="C615" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D615" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
@@ -11531,10 +11531,10 @@
         <v>5</v>
       </c>
       <c r="C616" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D616" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
@@ -11549,10 +11549,10 @@
         <v>11</v>
       </c>
       <c r="C617" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D617" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
@@ -11567,10 +11567,10 @@
         <v>10</v>
       </c>
       <c r="C618" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D618" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
@@ -11585,10 +11585,10 @@
         <v>8</v>
       </c>
       <c r="C619" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D619" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
@@ -11603,10 +11603,10 @@
         <v>8</v>
       </c>
       <c r="C620" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D620" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
@@ -11621,10 +11621,10 @@
         <v>14</v>
       </c>
       <c r="C621" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D621" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
@@ -11639,10 +11639,10 @@
         <v>2</v>
       </c>
       <c r="C622" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D622" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
@@ -11657,10 +11657,10 @@
         <v>26</v>
       </c>
       <c r="C623" t="n">
-        <v>3.723402731831943e-05</v>
+        <v>7.446805463663886e-05</v>
       </c>
       <c r="D623" t="n">
-        <v>0.0005478249441047817</v>
+        <v>0.001021181833572925</v>
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
@@ -11675,10 +11675,10 @@
         <v>20</v>
       </c>
       <c r="C624" t="n">
-        <v>2.864155947563033e-05</v>
+        <v>5.728311895126066e-05</v>
       </c>
       <c r="D624" t="n">
-        <v>0.0004322449663271634</v>
+        <v>0.0008072068137030663</v>
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
@@ -11693,10 +11693,10 @@
         <v>3</v>
       </c>
       <c r="C625" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D625" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
@@ -11711,10 +11711,10 @@
         <v>5</v>
       </c>
       <c r="C626" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D626" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
@@ -11729,10 +11729,10 @@
         <v>6</v>
       </c>
       <c r="C627" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D627" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
@@ -11747,10 +11747,10 @@
         <v>2</v>
       </c>
       <c r="C628" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D628" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr"/>
@@ -11765,10 +11765,10 @@
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D629" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
@@ -11783,10 +11783,10 @@
         <v>26</v>
       </c>
       <c r="C630" t="n">
-        <v>3.723402731831943e-05</v>
+        <v>7.446805463663886e-05</v>
       </c>
       <c r="D630" t="n">
-        <v>0.0005478249441047817</v>
+        <v>0.001021181833572925</v>
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
@@ -11801,10 +11801,10 @@
         <v>5</v>
       </c>
       <c r="C631" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D631" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
@@ -11819,10 +11819,10 @@
         <v>4</v>
       </c>
       <c r="C632" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D632" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
@@ -11837,10 +11837,10 @@
         <v>12</v>
       </c>
       <c r="C633" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D633" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
@@ -11855,10 +11855,10 @@
         <v>14</v>
       </c>
       <c r="C634" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D634" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
@@ -11873,10 +11873,10 @@
         <v>8</v>
       </c>
       <c r="C635" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D635" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
@@ -11891,10 +11891,10 @@
         <v>11</v>
       </c>
       <c r="C636" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D636" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
@@ -11909,10 +11909,10 @@
         <v>10</v>
       </c>
       <c r="C637" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D637" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
@@ -11927,10 +11927,10 @@
         <v>22</v>
       </c>
       <c r="C638" t="n">
-        <v>3.150571542319336e-05</v>
+        <v>6.301143084638672e-05</v>
       </c>
       <c r="D638" t="n">
-        <v>0.0004711373160709281</v>
+        <v>0.0008792632012954694</v>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
@@ -11945,10 +11945,10 @@
         <v>9</v>
       </c>
       <c r="C639" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D639" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
@@ -11963,10 +11963,10 @@
         <v>11</v>
       </c>
       <c r="C640" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D640" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
@@ -11981,10 +11981,10 @@
         <v>6</v>
       </c>
       <c r="C641" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D641" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
@@ -11999,10 +11999,10 @@
         <v>6</v>
       </c>
       <c r="C642" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D642" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr"/>
@@ -12017,10 +12017,10 @@
         <v>7</v>
       </c>
       <c r="C643" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D643" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
@@ -12035,10 +12035,10 @@
         <v>34</v>
       </c>
       <c r="C644" t="n">
-        <v>4.869065110857156e-05</v>
+        <v>9.738130221714312e-05</v>
       </c>
       <c r="D644" t="n">
-        <v>0.0006975420575095294</v>
+        <v>0.001297702812801916</v>
       </c>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
@@ -12053,10 +12053,10 @@
         <v>6</v>
       </c>
       <c r="C645" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D645" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
@@ -12071,10 +12071,10 @@
         <v>6</v>
       </c>
       <c r="C646" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D646" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
@@ -12089,10 +12089,10 @@
         <v>14</v>
       </c>
       <c r="C647" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D647" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
@@ -12107,10 +12107,10 @@
         <v>30</v>
       </c>
       <c r="C648" t="n">
-        <v>4.296233921344549e-05</v>
+        <v>8.592467842689099e-05</v>
       </c>
       <c r="D648" t="n">
-        <v>0.0006232360921076175</v>
+        <v>0.001160547505788344</v>
       </c>
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
@@ -12125,10 +12125,10 @@
         <v>14</v>
       </c>
       <c r="C649" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D649" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
@@ -12143,10 +12143,10 @@
         <v>11</v>
       </c>
       <c r="C650" t="n">
-        <v>1.575285771159668e-05</v>
+        <v>3.150571542319336e-05</v>
       </c>
       <c r="D650" t="n">
-        <v>0.0002513215157470607</v>
+        <v>0.0004711373160709281</v>
       </c>
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
@@ -12161,10 +12161,10 @@
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D651" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr"/>
@@ -12179,10 +12179,10 @@
         <v>8</v>
       </c>
       <c r="C652" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D652" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr"/>
@@ -12197,10 +12197,10 @@
         <v>3</v>
       </c>
       <c r="C653" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D653" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
@@ -12215,10 +12215,10 @@
         <v>9</v>
       </c>
       <c r="C654" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D654" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr"/>
@@ -12233,10 +12233,10 @@
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D655" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
@@ -12251,10 +12251,10 @@
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D656" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
@@ -12269,10 +12269,10 @@
         <v>7</v>
       </c>
       <c r="C657" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D657" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
@@ -12287,10 +12287,10 @@
         <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D658" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
@@ -12305,10 +12305,10 @@
         <v>5</v>
       </c>
       <c r="C659" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D659" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr"/>
@@ -12323,10 +12323,10 @@
         <v>7</v>
       </c>
       <c r="C660" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D660" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
@@ -12341,10 +12341,10 @@
         <v>3</v>
       </c>
       <c r="C661" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D661" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
@@ -12359,10 +12359,10 @@
         <v>3</v>
       </c>
       <c r="C662" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D662" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
@@ -12377,10 +12377,10 @@
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D663" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr"/>
@@ -12395,10 +12395,10 @@
         <v>5</v>
       </c>
       <c r="C664" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D664" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
@@ -12413,10 +12413,10 @@
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D665" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr"/>
@@ -12431,10 +12431,10 @@
         <v>3</v>
       </c>
       <c r="C666" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D666" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
@@ -12449,10 +12449,10 @@
         <v>10</v>
       </c>
       <c r="C667" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D667" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
@@ -12467,10 +12467,10 @@
         <v>3</v>
       </c>
       <c r="C668" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D668" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr"/>
@@ -12485,10 +12485,10 @@
         <v>3</v>
       </c>
       <c r="C669" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D669" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
@@ -12503,10 +12503,10 @@
         <v>3</v>
       </c>
       <c r="C670" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D670" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr"/>
@@ -12521,10 +12521,10 @@
         <v>3</v>
       </c>
       <c r="C671" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D671" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
@@ -12539,10 +12539,10 @@
         <v>8</v>
       </c>
       <c r="C672" t="n">
-        <v>1.145662379025213e-05</v>
+        <v>2.291324758050426e-05</v>
       </c>
       <c r="D672" t="n">
-        <v>0.0001880428193917546</v>
+        <v>0.000353172391203005</v>
       </c>
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr"/>
@@ -12557,10 +12557,10 @@
         <v>3</v>
       </c>
       <c r="C673" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D673" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
@@ -12575,10 +12575,10 @@
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D674" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
@@ -12593,10 +12593,10 @@
         <v>3</v>
       </c>
       <c r="C675" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D675" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
@@ -12611,10 +12611,10 @@
         <v>3</v>
       </c>
       <c r="C676" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D676" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
@@ -12629,10 +12629,10 @@
         <v>2</v>
       </c>
       <c r="C677" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D677" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr"/>
@@ -12647,10 +12647,10 @@
         <v>2</v>
       </c>
       <c r="C678" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D678" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
@@ -12665,10 +12665,10 @@
         <v>2</v>
       </c>
       <c r="C679" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D679" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
@@ -12683,10 +12683,10 @@
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D680" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
@@ -12701,10 +12701,10 @@
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D681" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr"/>
@@ -12719,10 +12719,10 @@
         <v>3</v>
       </c>
       <c r="C682" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D682" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr"/>
@@ -12737,10 +12737,10 @@
         <v>3</v>
       </c>
       <c r="C683" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D683" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr"/>
@@ -12755,10 +12755,10 @@
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D684" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E684" t="inlineStr"/>
       <c r="F684" t="inlineStr"/>
@@ -12773,10 +12773,10 @@
         <v>2</v>
       </c>
       <c r="C685" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D685" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E685" t="inlineStr"/>
       <c r="F685" t="inlineStr"/>
@@ -12791,10 +12791,10 @@
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D686" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
@@ -12809,10 +12809,10 @@
         <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D687" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr"/>
@@ -12827,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D688" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr"/>
@@ -12845,10 +12845,10 @@
         <v>2</v>
       </c>
       <c r="C689" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D689" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr"/>
@@ -12863,10 +12863,10 @@
         <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D690" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr"/>
@@ -12881,10 +12881,10 @@
         <v>14</v>
       </c>
       <c r="C691" t="n">
-        <v>2.004909163294123e-05</v>
+        <v>4.009818326588246e-05</v>
       </c>
       <c r="D691" t="n">
-        <v>0.0003128882011229315</v>
+        <v>0.0005856782189799806</v>
       </c>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr"/>
@@ -12899,10 +12899,10 @@
         <v>12</v>
       </c>
       <c r="C692" t="n">
-        <v>1.71849356853782e-05</v>
+        <v>3.43698713707564e-05</v>
       </c>
       <c r="D692" t="n">
-        <v>0.0002720116861343809</v>
+        <v>0.0005096535008980054</v>
       </c>
       <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr"/>
@@ -12917,10 +12917,10 @@
         <v>3</v>
       </c>
       <c r="C693" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D693" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
@@ -12935,10 +12935,10 @@
         <v>4</v>
       </c>
       <c r="C694" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D694" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
@@ -12953,10 +12953,10 @@
         <v>5</v>
       </c>
       <c r="C695" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D695" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
@@ -12971,10 +12971,10 @@
         <v>13</v>
       </c>
       <c r="C696" t="n">
-        <v>1.861701365915972e-05</v>
+        <v>3.723402731831943e-05</v>
       </c>
       <c r="D696" t="n">
-        <v>0.0002925294857115505</v>
+        <v>0.0005478249441047817</v>
       </c>
       <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr"/>
@@ -12989,10 +12989,10 @@
         <v>6</v>
       </c>
       <c r="C697" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D697" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
@@ -13007,10 +13007,10 @@
         <v>19</v>
       </c>
       <c r="C698" t="n">
-        <v>2.720948150184881e-05</v>
+        <v>5.441896300369762e-05</v>
       </c>
       <c r="D698" t="n">
-        <v>0.0004126462354627258</v>
+        <v>0.000770873507921754</v>
       </c>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
@@ -13025,10 +13025,10 @@
         <v>2</v>
       </c>
       <c r="C699" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D699" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
@@ -13043,10 +13043,10 @@
         <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D700" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
@@ -13061,10 +13061,10 @@
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D701" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
@@ -13079,10 +13079,10 @@
         <v>6</v>
       </c>
       <c r="C702" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D702" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
@@ -13097,10 +13097,10 @@
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D703" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr"/>
@@ -13115,10 +13115,10 @@
         <v>2</v>
       </c>
       <c r="C704" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D704" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E704" t="inlineStr"/>
       <c r="F704" t="inlineStr"/>
@@ -13133,10 +13133,10 @@
         <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D705" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E705" t="inlineStr"/>
       <c r="F705" t="inlineStr"/>
@@ -13151,10 +13151,10 @@
         <v>9</v>
       </c>
       <c r="C706" t="n">
-        <v>1.288870176403365e-05</v>
+        <v>2.57774035280673e-05</v>
       </c>
       <c r="D706" t="n">
-        <v>0.000209358059149881</v>
+        <v>0.0003929387147716946</v>
       </c>
       <c r="E706" t="inlineStr"/>
       <c r="F706" t="inlineStr"/>
@@ -13169,10 +13169,10 @@
         <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D707" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E707" t="inlineStr"/>
       <c r="F707" t="inlineStr"/>
@@ -13187,10 +13187,10 @@
         <v>5</v>
       </c>
       <c r="C708" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D708" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
@@ -13205,10 +13205,10 @@
         <v>7</v>
       </c>
       <c r="C709" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D709" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
@@ -13223,10 +13223,10 @@
         <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D710" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
@@ -13241,10 +13241,10 @@
         <v>4</v>
       </c>
       <c r="C711" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D711" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
@@ -13259,10 +13259,10 @@
         <v>4</v>
       </c>
       <c r="C712" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D712" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
@@ -13277,10 +13277,10 @@
         <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D713" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
@@ -13295,10 +13295,10 @@
         <v>4</v>
       </c>
       <c r="C714" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D714" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
@@ -13313,10 +13313,10 @@
         <v>2</v>
       </c>
       <c r="C715" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D715" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
@@ -13331,10 +13331,10 @@
         <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D716" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
@@ -13349,10 +13349,10 @@
         <v>2</v>
       </c>
       <c r="C717" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D717" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
@@ -13367,10 +13367,10 @@
         <v>7</v>
       </c>
       <c r="C718" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D718" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
@@ -13385,10 +13385,10 @@
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D719" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
@@ -13403,10 +13403,10 @@
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D720" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
@@ -13421,10 +13421,10 @@
         <v>2</v>
       </c>
       <c r="C721" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D721" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
@@ -13439,10 +13439,10 @@
         <v>2</v>
       </c>
       <c r="C722" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D722" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
@@ -13457,10 +13457,10 @@
         <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D723" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr"/>
@@ -13475,10 +13475,10 @@
         <v>5</v>
       </c>
       <c r="C724" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D724" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr"/>
@@ -13493,10 +13493,10 @@
         <v>6</v>
       </c>
       <c r="C725" t="n">
-        <v>8.592467842689099e-06</v>
+        <v>1.71849356853782e-05</v>
       </c>
       <c r="D725" t="n">
-        <v>0.0001445983109098795</v>
+        <v>0.0002720116861343809</v>
       </c>
       <c r="E725" t="inlineStr"/>
       <c r="F725" t="inlineStr"/>
@@ -13511,10 +13511,10 @@
         <v>2</v>
       </c>
       <c r="C726" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D726" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr"/>
@@ -13529,10 +13529,10 @@
         <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D727" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
@@ -13547,10 +13547,10 @@
         <v>7</v>
       </c>
       <c r="C728" t="n">
-        <v>1.002454581647061e-05</v>
+        <v>2.004909163294123e-05</v>
       </c>
       <c r="D728" t="n">
-        <v>0.0001664686463779364</v>
+        <v>0.0003128882011229315</v>
       </c>
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
@@ -13565,10 +13565,10 @@
         <v>3</v>
       </c>
       <c r="C729" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D729" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E729" t="inlineStr"/>
       <c r="F729" t="inlineStr"/>
@@ -13583,10 +13583,10 @@
         <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D730" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr"/>
@@ -13601,10 +13601,10 @@
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D731" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
@@ -13619,10 +13619,10 @@
         <v>4</v>
       </c>
       <c r="C732" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D732" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr"/>
@@ -13637,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="C733" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D733" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr"/>
@@ -13655,10 +13655,10 @@
         <v>1</v>
       </c>
       <c r="C734" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D734" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E734" t="inlineStr"/>
       <c r="F734" t="inlineStr"/>
@@ -13673,10 +13673,10 @@
         <v>10</v>
       </c>
       <c r="C735" t="n">
-        <v>1.432077973781516e-05</v>
+        <v>2.864155947563033e-05</v>
       </c>
       <c r="D735" t="n">
-        <v>0.0002304432629013969</v>
+        <v>0.0004322449663271634</v>
       </c>
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr"/>
@@ -13691,10 +13691,10 @@
         <v>1</v>
       </c>
       <c r="C736" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D736" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E736" t="inlineStr"/>
       <c r="F736" t="inlineStr"/>
@@ -13709,10 +13709,10 @@
         <v>2</v>
       </c>
       <c r="C737" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D737" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E737" t="inlineStr"/>
       <c r="F737" t="inlineStr"/>
@@ -13727,10 +13727,10 @@
         <v>1</v>
       </c>
       <c r="C738" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D738" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
@@ -13745,10 +13745,10 @@
         <v>1</v>
       </c>
       <c r="C739" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D739" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
@@ -13763,10 +13763,10 @@
         <v>15</v>
       </c>
       <c r="C740" t="n">
-        <v>2.148116960672275e-05</v>
+        <v>4.296233921344549e-05</v>
       </c>
       <c r="D740" t="n">
-        <v>0.0003330992156605315</v>
+        <v>0.0006232360921076175</v>
       </c>
       <c r="E740" t="inlineStr"/>
       <c r="F740" t="inlineStr"/>
@@ -13781,10 +13781,10 @@
         <v>1</v>
       </c>
       <c r="C741" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D741" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E741" t="inlineStr"/>
       <c r="F741" t="inlineStr"/>
@@ -13799,10 +13799,10 @@
         <v>1</v>
       </c>
       <c r="C742" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D742" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr"/>
@@ -13817,10 +13817,10 @@
         <v>2</v>
       </c>
       <c r="C743" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D743" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="inlineStr"/>
@@ -13835,10 +13835,10 @@
         <v>3</v>
       </c>
       <c r="C744" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D744" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E744" t="inlineStr"/>
       <c r="F744" t="inlineStr"/>
@@ -13853,10 +13853,10 @@
         <v>1</v>
       </c>
       <c r="C745" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D745" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
@@ -13871,10 +13871,10 @@
         <v>1</v>
       </c>
       <c r="C746" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D746" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
@@ -13889,10 +13889,10 @@
         <v>1</v>
       </c>
       <c r="C747" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D747" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E747" t="inlineStr"/>
       <c r="F747" t="inlineStr"/>
@@ -13907,10 +13907,10 @@
         <v>37</v>
       </c>
       <c r="C748" t="n">
-        <v>5.298688502991611e-05</v>
+        <v>0.0001059737700598322</v>
       </c>
       <c r="D748" t="n">
-        <v>0.0007526259882233228</v>
+        <v>0.001399278206386813</v>
       </c>
       <c r="E748" t="inlineStr"/>
       <c r="F748" t="inlineStr"/>
@@ -13925,10 +13925,10 @@
         <v>4</v>
       </c>
       <c r="C749" t="n">
-        <v>5.728311895126066e-06</v>
+        <v>1.145662379025213e-05</v>
       </c>
       <c r="D749" t="n">
-        <v>9.974972159100336e-05</v>
+        <v>0.0001880428193917546</v>
       </c>
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="inlineStr"/>
@@ -13943,10 +13943,10 @@
         <v>1</v>
       </c>
       <c r="C750" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D750" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
@@ -13961,10 +13961,10 @@
         <v>1</v>
       </c>
       <c r="C751" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D751" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
@@ -13979,10 +13979,10 @@
         <v>1</v>
       </c>
       <c r="C752" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D752" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E752" t="inlineStr"/>
       <c r="F752" t="inlineStr"/>
@@ -13997,10 +13997,10 @@
         <v>2</v>
       </c>
       <c r="C753" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D753" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E753" t="inlineStr"/>
       <c r="F753" t="inlineStr"/>
@@ -14015,10 +14015,10 @@
         <v>1</v>
       </c>
       <c r="C754" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D754" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E754" t="inlineStr"/>
       <c r="F754" t="inlineStr"/>
@@ -14033,10 +14033,10 @@
         <v>1</v>
       </c>
       <c r="C755" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D755" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E755" t="inlineStr"/>
       <c r="F755" t="inlineStr"/>
@@ -14051,10 +14051,10 @@
         <v>1</v>
       </c>
       <c r="C756" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D756" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E756" t="inlineStr"/>
       <c r="F756" t="inlineStr"/>
@@ -14069,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="C757" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D757" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="inlineStr"/>
@@ -14087,10 +14087,10 @@
         <v>2</v>
       </c>
       <c r="C758" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D758" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E758" t="inlineStr"/>
       <c r="F758" t="inlineStr"/>
@@ -14105,10 +14105,10 @@
         <v>3</v>
       </c>
       <c r="C759" t="n">
-        <v>4.296233921344549e-06</v>
+        <v>8.592467842689099e-06</v>
       </c>
       <c r="D759" t="n">
-        <v>7.659538937628432e-05</v>
+        <v>0.0001445983109098795</v>
       </c>
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="inlineStr"/>
@@ -14123,10 +14123,10 @@
         <v>5</v>
       </c>
       <c r="C760" t="n">
-        <v>7.160389868907582e-06</v>
+        <v>1.432077973781516e-05</v>
       </c>
       <c r="D760" t="n">
-        <v>0.000122382021319606</v>
+        <v>0.0002304432629013969</v>
       </c>
       <c r="E760" t="inlineStr"/>
       <c r="F760" t="inlineStr"/>
@@ -14141,10 +14141,10 @@
         <v>1</v>
       </c>
       <c r="C761" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D761" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E761" t="inlineStr"/>
       <c r="F761" t="inlineStr"/>
@@ -14159,10 +14159,10 @@
         <v>1</v>
       </c>
       <c r="C762" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D762" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
@@ -14177,10 +14177,10 @@
         <v>1</v>
       </c>
       <c r="C763" t="n">
-        <v>1.432077973781516e-06</v>
+        <v>2.864155947563033e-06</v>
       </c>
       <c r="D763" t="n">
-        <v>2.780158634531387e-05</v>
+        <v>5.273901674306472e-05</v>
       </c>
       <c r="E763" t="inlineStr"/>
       <c r="F763" t="inlineStr"/>
@@ -14195,10 +14195,10 @@
         <v>2</v>
       </c>
       <c r="C764" t="n">
-        <v>2.864155947563033e-06</v>
+        <v>5.728311895126066e-06</v>
       </c>
       <c r="D764" t="n">
-        <v>5.273901674306472e-05</v>
+        <v>9.974972159100336e-05</v>
       </c>
       <c r="E764" t="inlineStr"/>
       <c r="F764" t="inlineStr"/>
